--- a/Jogos_do_Dia/2023-06-21_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-06-21_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="105">
   <si>
     <t>League</t>
   </si>
@@ -139,6 +139,9 @@
     <t>USA USL Championship</t>
   </si>
   <si>
+    <t>Colombia Categoria Primera A</t>
+  </si>
+  <si>
     <t>19:00:00</t>
   </si>
   <si>
@@ -151,6 +154,24 @@
     <t>21:00:00</t>
   </si>
   <si>
+    <t>21:30:00</t>
+  </si>
+  <si>
+    <t>22:00:00</t>
+  </si>
+  <si>
+    <t>22:30:00</t>
+  </si>
+  <si>
+    <t>23:00:00</t>
+  </si>
+  <si>
+    <t>23:30:00</t>
+  </si>
+  <si>
+    <t>Cruzeiro</t>
+  </si>
+  <si>
     <t>São Paulo</t>
   </si>
   <si>
@@ -160,28 +181,28 @@
     <t>CRB</t>
   </si>
   <si>
-    <t>Cruzeiro</t>
-  </si>
-  <si>
     <t>Santos</t>
   </si>
   <si>
     <t>York9 FC</t>
   </si>
   <si>
+    <t>Orlando City</t>
+  </si>
+  <si>
     <t>New York RB</t>
   </si>
   <si>
+    <t>FC Cincinnati</t>
+  </si>
+  <si>
+    <t>Atlanta United FC</t>
+  </si>
+  <si>
     <t>Montreal Impact</t>
   </si>
   <si>
-    <t>FC Cincinnati</t>
-  </si>
-  <si>
-    <t>Atlanta United FC</t>
-  </si>
-  <si>
-    <t>Orlando City</t>
+    <t>Rio Grande Valley</t>
   </si>
   <si>
     <t>Memphis 901</t>
@@ -190,7 +211,46 @@
     <t>Birmingham Legion</t>
   </si>
   <si>
-    <t>Rio Grande Valley</t>
+    <t>Bahia</t>
+  </si>
+  <si>
+    <t>Fluminense</t>
+  </si>
+  <si>
+    <t>St. Louis City</t>
+  </si>
+  <si>
+    <t>Houston Dynamo</t>
+  </si>
+  <si>
+    <t>Central Córdoba SdE</t>
+  </si>
+  <si>
+    <t>New Mexico United</t>
+  </si>
+  <si>
+    <t>Atlético Nacional</t>
+  </si>
+  <si>
+    <t>Colorado Rapids</t>
+  </si>
+  <si>
+    <t>Austin</t>
+  </si>
+  <si>
+    <t>Pacific FC</t>
+  </si>
+  <si>
+    <t>LA Galaxy</t>
+  </si>
+  <si>
+    <t>Los Angeles FC</t>
+  </si>
+  <si>
+    <t>Portland Timbers</t>
+  </si>
+  <si>
+    <t>Fortaleza</t>
   </si>
   <si>
     <t>Atlético PR</t>
@@ -202,28 +262,28 @@
     <t>Ituano</t>
   </si>
   <si>
-    <t>Fortaleza</t>
-  </si>
-  <si>
     <t>Corinthians</t>
   </si>
   <si>
     <t>HFX Wanderers FC</t>
   </si>
   <si>
+    <t>Philadelphia Union</t>
+  </si>
+  <si>
     <t>Charlotte</t>
   </si>
   <si>
+    <t>Toronto</t>
+  </si>
+  <si>
+    <t>New York City</t>
+  </si>
+  <si>
     <t>Nashville SC</t>
   </si>
   <si>
-    <t>Toronto</t>
-  </si>
-  <si>
-    <t>New York City</t>
-  </si>
-  <si>
-    <t>Philadelphia Union</t>
+    <t>Colorado Springs</t>
   </si>
   <si>
     <t>Tulsa Roughnecks</t>
@@ -232,7 +292,43 @@
     <t>Loudoun United</t>
   </si>
   <si>
-    <t>Colorado Springs</t>
+    <t>Palmeiras</t>
+  </si>
+  <si>
+    <t>Atlético Mineiro</t>
+  </si>
+  <si>
+    <t>Real Salt Lake</t>
+  </si>
+  <si>
+    <t>SJ Earthquakes</t>
+  </si>
+  <si>
+    <t>Gimnasia La Plata</t>
+  </si>
+  <si>
+    <t>Phoenix Rising</t>
+  </si>
+  <si>
+    <t>Millonarios</t>
+  </si>
+  <si>
+    <t>Vancouver Whitecaps</t>
+  </si>
+  <si>
+    <t>FC Dallas</t>
+  </si>
+  <si>
+    <t>Valour FC</t>
+  </si>
+  <si>
+    <t>Sporting KC</t>
+  </si>
+  <si>
+    <t>Seattle Sounders</t>
+  </si>
+  <si>
+    <t>Chicago Fire</t>
   </si>
 </sst>
 </file>
@@ -594,7 +690,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AI15"/>
+  <dimension ref="A1:AI28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -715,49 +811,49 @@
         <v>45098</v>
       </c>
       <c r="C2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D2">
         <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="F2" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="G2">
-        <v>1.74</v>
+        <v>2.01</v>
       </c>
       <c r="H2">
-        <v>3.35</v>
+        <v>3.42</v>
       </c>
       <c r="I2">
-        <v>4.13</v>
+        <v>4.01</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>9.5</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N2">
-        <v>2.07</v>
+        <v>2.15</v>
       </c>
       <c r="O2">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>2.63</v>
       </c>
       <c r="R2">
         <v>1.95</v>
@@ -766,373 +862,373 @@
         <v>1.8</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="U2">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="V2">
-        <v>0</v>
+        <v>1.72</v>
       </c>
       <c r="W2">
-        <v>2.4</v>
+        <v>1.2</v>
       </c>
       <c r="X2">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="Y2">
-        <v>1.84</v>
+        <v>2</v>
       </c>
       <c r="Z2">
-        <v>1.32</v>
+        <v>1.68</v>
       </c>
       <c r="AA2">
-        <v>3.16</v>
+        <v>3.68</v>
       </c>
       <c r="AB2">
-        <v>1.46</v>
+        <v>1.54</v>
       </c>
       <c r="AC2">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AD2">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="AE2">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="AF2">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="AG2">
-        <v>0</v>
+        <v>1.54</v>
       </c>
       <c r="AH2">
-        <v>0</v>
+        <v>1.88</v>
       </c>
       <c r="AI2">
-        <v>0</v>
+        <v>2.35</v>
       </c>
     </row>
     <row r="3" spans="1:35">
       <c r="A3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B3" s="2">
         <v>45098</v>
       </c>
       <c r="C3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D3">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="F3" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="G3">
-        <v>2.19</v>
+        <v>1.86</v>
       </c>
       <c r="H3">
-        <v>2.97</v>
+        <v>3.56</v>
       </c>
       <c r="I3">
-        <v>3.78</v>
+        <v>4.61</v>
       </c>
       <c r="J3">
-        <v>1.14</v>
+        <v>1.06</v>
       </c>
       <c r="K3">
-        <v>5</v>
+        <v>9.5</v>
       </c>
       <c r="L3">
-        <v>1.67</v>
+        <v>1.36</v>
       </c>
       <c r="M3">
-        <v>2.1</v>
+        <v>3.1</v>
       </c>
       <c r="N3">
-        <v>3</v>
+        <v>2.15</v>
       </c>
       <c r="O3">
-        <v>1.36</v>
+        <v>1.68</v>
       </c>
       <c r="P3">
-        <v>1.62</v>
+        <v>1.44</v>
       </c>
       <c r="Q3">
-        <v>2.2</v>
+        <v>2.63</v>
       </c>
       <c r="R3">
-        <v>2.5</v>
+        <v>1.95</v>
       </c>
       <c r="S3">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="T3">
+        <v>1.21</v>
+      </c>
+      <c r="U3">
         <v>1.29</v>
       </c>
-      <c r="U3">
-        <v>1.4</v>
-      </c>
       <c r="V3">
-        <v>1.57</v>
+        <v>1.93</v>
       </c>
       <c r="W3">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="X3">
-        <v>1.33</v>
+        <v>0.8</v>
       </c>
       <c r="Y3">
-        <v>1.52</v>
+        <v>1.84</v>
       </c>
       <c r="Z3">
         <v>1.32</v>
       </c>
       <c r="AA3">
-        <v>2.84</v>
+        <v>3.16</v>
       </c>
       <c r="AB3">
-        <v>1.82</v>
+        <v>1.41</v>
       </c>
       <c r="AC3">
-        <v>7.5</v>
+        <v>9.5</v>
       </c>
       <c r="AD3">
-        <v>2.4</v>
+        <v>3.5</v>
       </c>
       <c r="AE3">
-        <v>1.36</v>
+        <v>1.18</v>
       </c>
       <c r="AF3">
-        <v>1.67</v>
+        <v>1.26</v>
       </c>
       <c r="AG3">
-        <v>2.15</v>
+        <v>1.46</v>
       </c>
       <c r="AH3">
-        <v>2.95</v>
+        <v>1.77</v>
       </c>
       <c r="AI3">
-        <v>4.1</v>
+        <v>2.18</v>
       </c>
     </row>
     <row r="4" spans="1:35">
       <c r="A4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B4" s="2">
         <v>45098</v>
       </c>
       <c r="C4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D4">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="E4" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="F4" t="s">
-        <v>61</v>
+        <v>80</v>
       </c>
       <c r="G4">
-        <v>2.02</v>
+        <v>2.19</v>
       </c>
       <c r="H4">
-        <v>3.15</v>
+        <v>2.97</v>
       </c>
       <c r="I4">
-        <v>3.5</v>
+        <v>3.78</v>
       </c>
       <c r="J4">
-        <v>1.1</v>
+        <v>1.14</v>
       </c>
       <c r="K4">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="L4">
-        <v>1.45</v>
+        <v>1.67</v>
       </c>
       <c r="M4">
-        <v>2.6</v>
+        <v>2.1</v>
       </c>
       <c r="N4">
-        <v>2.33</v>
+        <v>3</v>
       </c>
       <c r="O4">
-        <v>1.54</v>
+        <v>1.36</v>
       </c>
       <c r="P4">
-        <v>1.53</v>
+        <v>1.62</v>
       </c>
       <c r="Q4">
-        <v>2.38</v>
+        <v>2.2</v>
       </c>
       <c r="R4">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="S4">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="T4">
-        <v>1.18</v>
+        <v>1.29</v>
       </c>
       <c r="U4">
-        <v>1.28</v>
+        <v>1.4</v>
       </c>
       <c r="V4">
-        <v>1.8</v>
+        <v>1.57</v>
       </c>
       <c r="W4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X4">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="Y4">
-        <v>1.49</v>
+        <v>1.52</v>
       </c>
       <c r="Z4">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="AA4">
-        <v>2.8</v>
+        <v>2.84</v>
       </c>
       <c r="AB4">
-        <v>1.62</v>
+        <v>1.82</v>
       </c>
       <c r="AC4">
         <v>7.5</v>
       </c>
       <c r="AD4">
-        <v>2.88</v>
+        <v>2.4</v>
       </c>
       <c r="AE4">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AF4">
-        <v>1.38</v>
+        <v>1.67</v>
       </c>
       <c r="AG4">
-        <v>1.67</v>
+        <v>2.15</v>
       </c>
       <c r="AH4">
-        <v>2.12</v>
+        <v>2.95</v>
       </c>
       <c r="AI4">
-        <v>2.85</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="5" spans="1:35">
       <c r="A5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B5" s="2">
         <v>45098</v>
       </c>
       <c r="C5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D5">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E5" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="F5" t="s">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="G5">
-        <v>2.09</v>
+        <v>1.97</v>
       </c>
       <c r="H5">
-        <v>3.11</v>
+        <v>3.26</v>
       </c>
       <c r="I5">
-        <v>3.16</v>
+        <v>4.04</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="N5">
-        <v>2.15</v>
+        <v>2.35</v>
       </c>
       <c r="O5">
+        <v>1.55</v>
+      </c>
+      <c r="P5">
+        <v>1.53</v>
+      </c>
+      <c r="Q5">
+        <v>2.38</v>
+      </c>
+      <c r="R5">
+        <v>2.2</v>
+      </c>
+      <c r="S5">
         <v>1.62</v>
       </c>
-      <c r="P5">
-        <v>0</v>
-      </c>
-      <c r="Q5">
-        <v>0</v>
-      </c>
-      <c r="R5">
-        <v>1.95</v>
-      </c>
-      <c r="S5">
+      <c r="T5">
+        <v>1.18</v>
+      </c>
+      <c r="U5">
+        <v>1.28</v>
+      </c>
+      <c r="V5">
         <v>1.8</v>
       </c>
-      <c r="T5">
-        <v>0</v>
-      </c>
-      <c r="U5">
-        <v>0</v>
-      </c>
-      <c r="V5">
-        <v>0</v>
-      </c>
       <c r="W5">
+        <v>1</v>
+      </c>
+      <c r="X5">
+        <v>0.5</v>
+      </c>
+      <c r="Y5">
+        <v>1.49</v>
+      </c>
+      <c r="Z5">
+        <v>1.31</v>
+      </c>
+      <c r="AA5">
+        <v>2.8</v>
+      </c>
+      <c r="AB5">
+        <v>1.62</v>
+      </c>
+      <c r="AC5">
+        <v>7.5</v>
+      </c>
+      <c r="AD5">
+        <v>2.88</v>
+      </c>
+      <c r="AE5">
         <v>1.2</v>
       </c>
-      <c r="X5">
-        <v>1</v>
-      </c>
-      <c r="Y5">
-        <v>2</v>
-      </c>
-      <c r="Z5">
-        <v>1.68</v>
-      </c>
-      <c r="AA5">
-        <v>3.68</v>
-      </c>
-      <c r="AB5">
-        <v>1.57</v>
-      </c>
-      <c r="AC5">
-        <v>8</v>
-      </c>
-      <c r="AD5">
-        <v>2.8</v>
-      </c>
-      <c r="AE5">
-        <v>0</v>
-      </c>
       <c r="AF5">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="AG5">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="AH5">
-        <v>0</v>
+        <v>2.12</v>
       </c>
       <c r="AI5">
-        <v>0</v>
+        <v>2.85</v>
       </c>
     </row>
     <row r="6" spans="1:35">
@@ -1143,49 +1239,49 @@
         <v>45098</v>
       </c>
       <c r="C6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D6">
         <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="F6" t="s">
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="G6">
-        <v>2.61</v>
+        <v>2.57</v>
       </c>
       <c r="H6">
-        <v>2.86</v>
+        <v>2.96</v>
       </c>
       <c r="I6">
-        <v>2.61</v>
+        <v>3.2</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>5.2</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="N6">
-        <v>2.75</v>
+        <v>2.4</v>
       </c>
       <c r="O6">
-        <v>1.39</v>
+        <v>1.55</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="R6">
         <v>2.1</v>
@@ -1194,13 +1290,13 @@
         <v>1.67</v>
       </c>
       <c r="T6">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="U6">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="V6">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="W6">
         <v>1.8</v>
@@ -1218,28 +1314,28 @@
         <v>2.7</v>
       </c>
       <c r="AB6">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="AC6">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AD6">
         <v>2.35</v>
       </c>
       <c r="AE6">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="AF6">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="AG6">
         <v>2.1</v>
       </c>
       <c r="AH6">
-        <v>0</v>
+        <v>2.16</v>
       </c>
       <c r="AI6">
-        <v>0</v>
+        <v>2.75</v>
       </c>
     </row>
     <row r="7" spans="1:35">
@@ -1250,64 +1346,64 @@
         <v>45098</v>
       </c>
       <c r="C7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D7">
         <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="F7" t="s">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>2.22</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>3.32</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>2.78</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>2.98</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>2.07</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>1.74</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="Q7">
-        <v>0</v>
+        <v>2.63</v>
       </c>
       <c r="R7">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="S7">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="T7">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="U7">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="V7">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="W7">
         <v>1.2</v>
@@ -1337,7 +1433,7 @@
         <v>0</v>
       </c>
       <c r="AF7">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="AG7">
         <v>0</v>
@@ -1357,103 +1453,103 @@
         <v>45098</v>
       </c>
       <c r="C8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="F8" t="s">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="G8">
-        <v>1.93</v>
+        <v>2.2</v>
       </c>
       <c r="H8">
-        <v>3.53</v>
+        <v>3.5</v>
       </c>
       <c r="I8">
-        <v>3.79</v>
+        <v>3</v>
       </c>
       <c r="J8">
-        <v>1.07</v>
+        <v>1.04</v>
       </c>
       <c r="K8">
-        <v>7.5</v>
+        <v>10</v>
       </c>
       <c r="L8">
-        <v>1.36</v>
+        <v>1.22</v>
       </c>
       <c r="M8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N8">
-        <v>1.9</v>
+        <v>1.66</v>
       </c>
       <c r="O8">
-        <v>1.9</v>
+        <v>2.04</v>
       </c>
       <c r="P8">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="Q8">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="R8">
-        <v>1.91</v>
+        <v>1.62</v>
       </c>
       <c r="S8">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="T8">
-        <v>1.2</v>
+        <v>1.41</v>
       </c>
       <c r="U8">
-        <v>1.22</v>
+        <v>1.29</v>
       </c>
       <c r="V8">
-        <v>2.05</v>
+        <v>1.61</v>
       </c>
       <c r="W8">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="X8">
-        <v>1.11</v>
+        <v>1.25</v>
       </c>
       <c r="Y8">
-        <v>1.57</v>
+        <v>1.52</v>
       </c>
       <c r="Z8">
-        <v>1.16</v>
+        <v>1.44</v>
       </c>
       <c r="AA8">
-        <v>2.73</v>
+        <v>2.96</v>
       </c>
       <c r="AB8">
-        <v>1.38</v>
+        <v>1.72</v>
       </c>
       <c r="AC8">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AD8">
-        <v>3.7</v>
+        <v>2.55</v>
       </c>
       <c r="AE8">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="AF8">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AG8">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="AH8">
-        <v>2.63</v>
+        <v>2.55</v>
       </c>
       <c r="AI8">
-        <v>3.65</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="9" spans="1:35">
@@ -1464,103 +1560,103 @@
         <v>45098</v>
       </c>
       <c r="C9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="F9" t="s">
-        <v>66</v>
+        <v>85</v>
       </c>
       <c r="G9">
-        <v>2.41</v>
+        <v>1.95</v>
       </c>
       <c r="H9">
-        <v>3.61</v>
+        <v>3.4</v>
       </c>
       <c r="I9">
-        <v>2.68</v>
+        <v>3.9</v>
       </c>
       <c r="J9">
-        <v>1.03</v>
+        <v>1.07</v>
       </c>
       <c r="K9">
-        <v>11</v>
+        <v>7.5</v>
       </c>
       <c r="L9">
+        <v>1.36</v>
+      </c>
+      <c r="M9">
+        <v>3</v>
+      </c>
+      <c r="N9">
+        <v>1.83</v>
+      </c>
+      <c r="O9">
+        <v>1.83</v>
+      </c>
+      <c r="P9">
+        <v>1.4</v>
+      </c>
+      <c r="Q9">
+        <v>2.75</v>
+      </c>
+      <c r="R9">
+        <v>1.91</v>
+      </c>
+      <c r="S9">
+        <v>1.8</v>
+      </c>
+      <c r="T9">
         <v>1.2</v>
       </c>
-      <c r="M9">
-        <v>4.33</v>
-      </c>
-      <c r="N9">
-        <v>1.72</v>
-      </c>
-      <c r="O9">
-        <v>2.14</v>
-      </c>
-      <c r="P9">
-        <v>1.3</v>
-      </c>
-      <c r="Q9">
-        <v>3.4</v>
-      </c>
-      <c r="R9">
-        <v>1.53</v>
-      </c>
-      <c r="S9">
-        <v>2.38</v>
-      </c>
-      <c r="T9">
-        <v>1.44</v>
-      </c>
       <c r="U9">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="V9">
-        <v>1.53</v>
+        <v>2.05</v>
       </c>
       <c r="W9">
-        <v>2.57</v>
+        <v>1.5</v>
       </c>
       <c r="X9">
-        <v>1.5</v>
+        <v>1.11</v>
       </c>
       <c r="Y9">
-        <v>1.37</v>
+        <v>1.57</v>
       </c>
       <c r="Z9">
-        <v>1.1</v>
+        <v>1.16</v>
       </c>
       <c r="AA9">
-        <v>2.47</v>
+        <v>2.73</v>
       </c>
       <c r="AB9">
-        <v>1.8</v>
+        <v>1.38</v>
       </c>
       <c r="AC9">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AD9">
-        <v>2.4</v>
+        <v>3.7</v>
       </c>
       <c r="AE9">
         <v>1.3</v>
       </c>
       <c r="AF9">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="AG9">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="AH9">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="AI9">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
     </row>
     <row r="10" spans="1:35">
@@ -1571,25 +1667,25 @@
         <v>45098</v>
       </c>
       <c r="C10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="F10" t="s">
-        <v>67</v>
+        <v>86</v>
       </c>
       <c r="G10">
-        <v>1.66</v>
+        <v>1.6</v>
       </c>
       <c r="H10">
-        <v>3.89</v>
+        <v>3.9</v>
       </c>
       <c r="I10">
-        <v>4.87</v>
+        <v>5.5</v>
       </c>
       <c r="J10">
         <v>1.03</v>
@@ -1604,10 +1700,10 @@
         <v>4</v>
       </c>
       <c r="N10">
-        <v>1.83</v>
+        <v>1.74</v>
       </c>
       <c r="O10">
-        <v>2.05</v>
+        <v>1.94</v>
       </c>
       <c r="P10">
         <v>1.38</v>
@@ -1678,25 +1774,25 @@
         <v>45098</v>
       </c>
       <c r="C11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="F11" t="s">
-        <v>68</v>
+        <v>87</v>
       </c>
       <c r="G11">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="H11">
-        <v>3.98</v>
+        <v>3.9</v>
       </c>
       <c r="I11">
-        <v>4.14</v>
+        <v>4.6</v>
       </c>
       <c r="J11">
         <v>1.04</v>
@@ -1711,10 +1807,10 @@
         <v>4</v>
       </c>
       <c r="N11">
-        <v>1.72</v>
+        <v>1.66</v>
       </c>
       <c r="O11">
-        <v>2.14</v>
+        <v>2.05</v>
       </c>
       <c r="P11">
         <v>1.3</v>
@@ -1785,103 +1881,103 @@
         <v>45098</v>
       </c>
       <c r="C12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="F12" t="s">
-        <v>69</v>
+        <v>88</v>
       </c>
       <c r="G12">
-        <v>2.24</v>
+        <v>2.5</v>
       </c>
       <c r="H12">
-        <v>3.66</v>
+        <v>3.5</v>
       </c>
       <c r="I12">
-        <v>2.9</v>
+        <v>2.63</v>
       </c>
       <c r="J12">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K12">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L12">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="M12">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="N12">
-        <v>1.78</v>
+        <v>1.58</v>
       </c>
       <c r="O12">
-        <v>1.92</v>
+        <v>2.18</v>
       </c>
       <c r="P12">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="Q12">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="R12">
-        <v>1.62</v>
+        <v>1.53</v>
       </c>
       <c r="S12">
-        <v>2.2</v>
+        <v>2.38</v>
       </c>
       <c r="T12">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="U12">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="V12">
-        <v>1.61</v>
+        <v>1.53</v>
       </c>
       <c r="W12">
-        <v>1.33</v>
+        <v>2.57</v>
       </c>
       <c r="X12">
-        <v>1.25</v>
+        <v>1.5</v>
       </c>
       <c r="Y12">
-        <v>1.52</v>
+        <v>1.37</v>
       </c>
       <c r="Z12">
-        <v>1.44</v>
+        <v>1.1</v>
       </c>
       <c r="AA12">
-        <v>2.96</v>
+        <v>2.47</v>
       </c>
       <c r="AB12">
-        <v>1.72</v>
+        <v>1.8</v>
       </c>
       <c r="AC12">
         <v>7</v>
       </c>
       <c r="AD12">
-        <v>2.55</v>
+        <v>2.4</v>
       </c>
       <c r="AE12">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="AF12">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="AG12">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="AH12">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="AI12">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="13" spans="1:35">
@@ -1892,79 +1988,79 @@
         <v>45098</v>
       </c>
       <c r="C13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="F13" t="s">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="G13">
-        <v>1.67</v>
+        <v>2.38</v>
       </c>
       <c r="H13">
-        <v>3.5</v>
+        <v>3.59</v>
       </c>
       <c r="I13">
-        <v>4.4</v>
+        <v>2.6</v>
       </c>
       <c r="J13">
-        <v>1.05</v>
+        <v>1.01</v>
       </c>
       <c r="K13">
-        <v>9</v>
+        <v>9.9</v>
       </c>
       <c r="L13">
         <v>1.25</v>
       </c>
       <c r="M13">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="N13">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="O13">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="P13">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="Q13">
-        <v>3.25</v>
+        <v>2.94</v>
       </c>
       <c r="R13">
-        <v>1.75</v>
+        <v>1.66</v>
       </c>
       <c r="S13">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="T13">
-        <v>1.15</v>
+        <v>1.3</v>
       </c>
       <c r="U13">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="V13">
-        <v>2.1</v>
+        <v>1.57</v>
       </c>
       <c r="W13">
-        <v>1.29</v>
+        <v>0.63</v>
       </c>
       <c r="X13">
-        <v>0.88</v>
+        <v>1.13</v>
       </c>
       <c r="Y13">
-        <v>1.64</v>
+        <v>1.91</v>
       </c>
       <c r="Z13">
-        <v>1.25</v>
+        <v>1.39</v>
       </c>
       <c r="AA13">
-        <v>2.89</v>
+        <v>3.3</v>
       </c>
       <c r="AB13">
         <v>0</v>
@@ -1979,13 +2075,13 @@
         <v>0</v>
       </c>
       <c r="AF13">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="AG13">
-        <v>0</v>
+        <v>1.86</v>
       </c>
       <c r="AH13">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="AI13">
         <v>0</v>
@@ -1999,25 +2095,25 @@
         <v>45098</v>
       </c>
       <c r="C14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="F14" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="G14">
-        <v>1.85</v>
+        <v>1.6</v>
       </c>
       <c r="H14">
-        <v>3.3</v>
+        <v>4.1</v>
       </c>
       <c r="I14">
-        <v>3.6</v>
+        <v>4.67</v>
       </c>
       <c r="J14">
         <v>1.05</v>
@@ -2029,49 +2125,49 @@
         <v>1.25</v>
       </c>
       <c r="M14">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="N14">
+        <v>1.73</v>
+      </c>
+      <c r="O14">
+        <v>1.91</v>
+      </c>
+      <c r="P14">
+        <v>1.33</v>
+      </c>
+      <c r="Q14">
+        <v>3.25</v>
+      </c>
+      <c r="R14">
         <v>1.75</v>
       </c>
-      <c r="O14">
-        <v>1.95</v>
-      </c>
-      <c r="P14">
-        <v>1.36</v>
-      </c>
-      <c r="Q14">
-        <v>3</v>
-      </c>
-      <c r="R14">
-        <v>1.72</v>
-      </c>
       <c r="S14">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T14">
+        <v>1.15</v>
+      </c>
+      <c r="U14">
         <v>1.2</v>
       </c>
-      <c r="U14">
-        <v>1.22</v>
-      </c>
       <c r="V14">
-        <v>1.83</v>
+        <v>2.1</v>
       </c>
       <c r="W14">
-        <v>1.43</v>
+        <v>1.29</v>
       </c>
       <c r="X14">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="Y14">
-        <v>1.42</v>
+        <v>1.64</v>
       </c>
       <c r="Z14">
-        <v>1.31</v>
+        <v>1.25</v>
       </c>
       <c r="AA14">
-        <v>2.73</v>
+        <v>2.89</v>
       </c>
       <c r="AB14">
         <v>0</v>
@@ -2086,13 +2182,13 @@
         <v>0</v>
       </c>
       <c r="AF14">
-        <v>0</v>
+        <v>1.56</v>
       </c>
       <c r="AG14">
-        <v>0</v>
+        <v>1.92</v>
       </c>
       <c r="AH14">
-        <v>0</v>
+        <v>2.39</v>
       </c>
       <c r="AI14">
         <v>0</v>
@@ -2106,31 +2202,31 @@
         <v>45098</v>
       </c>
       <c r="C15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="F15" t="s">
-        <v>72</v>
+        <v>91</v>
       </c>
       <c r="G15">
-        <v>2.08</v>
+        <v>1.67</v>
       </c>
       <c r="H15">
-        <v>3.15</v>
+        <v>4.13</v>
       </c>
       <c r="I15">
-        <v>2.96</v>
+        <v>4.1</v>
       </c>
       <c r="J15">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="K15">
-        <v>9.9</v>
+        <v>9</v>
       </c>
       <c r="L15">
         <v>1.25</v>
@@ -2139,70 +2235,1461 @@
         <v>3.6</v>
       </c>
       <c r="N15">
+        <v>1.73</v>
+      </c>
+      <c r="O15">
+        <v>1.91</v>
+      </c>
+      <c r="P15">
+        <v>1.36</v>
+      </c>
+      <c r="Q15">
+        <v>3</v>
+      </c>
+      <c r="R15">
+        <v>1.72</v>
+      </c>
+      <c r="S15">
+        <v>2.05</v>
+      </c>
+      <c r="T15">
+        <v>1.2</v>
+      </c>
+      <c r="U15">
+        <v>1.22</v>
+      </c>
+      <c r="V15">
+        <v>1.83</v>
+      </c>
+      <c r="W15">
+        <v>1.43</v>
+      </c>
+      <c r="X15">
+        <v>0.86</v>
+      </c>
+      <c r="Y15">
+        <v>1.42</v>
+      </c>
+      <c r="Z15">
+        <v>1.31</v>
+      </c>
+      <c r="AA15">
+        <v>2.73</v>
+      </c>
+      <c r="AB15">
+        <v>0</v>
+      </c>
+      <c r="AC15">
+        <v>0</v>
+      </c>
+      <c r="AD15">
+        <v>0</v>
+      </c>
+      <c r="AE15">
+        <v>0</v>
+      </c>
+      <c r="AF15">
+        <v>1.61</v>
+      </c>
+      <c r="AG15">
+        <v>1.98</v>
+      </c>
+      <c r="AH15">
+        <v>2.47</v>
+      </c>
+      <c r="AI15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:35">
+      <c r="A16" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" s="2">
+        <v>45098</v>
+      </c>
+      <c r="C16" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16">
+        <v>11</v>
+      </c>
+      <c r="E16" t="s">
+        <v>65</v>
+      </c>
+      <c r="F16" t="s">
+        <v>92</v>
+      </c>
+      <c r="G16">
+        <v>4.25</v>
+      </c>
+      <c r="H16">
+        <v>3.6</v>
+      </c>
+      <c r="I16">
+        <v>1.89</v>
+      </c>
+      <c r="J16">
+        <v>1.05</v>
+      </c>
+      <c r="K16">
+        <v>10</v>
+      </c>
+      <c r="L16">
+        <v>1.33</v>
+      </c>
+      <c r="M16">
+        <v>3.25</v>
+      </c>
+      <c r="N16">
+        <v>2.03</v>
+      </c>
+      <c r="O16">
+        <v>1.83</v>
+      </c>
+      <c r="P16">
+        <v>1.4</v>
+      </c>
+      <c r="Q16">
+        <v>2.75</v>
+      </c>
+      <c r="R16">
+        <v>1.75</v>
+      </c>
+      <c r="S16">
+        <v>2</v>
+      </c>
+      <c r="T16">
+        <v>1.82</v>
+      </c>
+      <c r="U16">
+        <v>1.3</v>
+      </c>
+      <c r="V16">
+        <v>1.25</v>
+      </c>
+      <c r="W16">
+        <v>1</v>
+      </c>
+      <c r="X16">
+        <v>1.8</v>
+      </c>
+      <c r="Y16">
+        <v>1.76</v>
+      </c>
+      <c r="Z16">
+        <v>1.45</v>
+      </c>
+      <c r="AA16">
+        <v>3.21</v>
+      </c>
+      <c r="AB16">
+        <v>2.65</v>
+      </c>
+      <c r="AC16">
+        <v>8</v>
+      </c>
+      <c r="AD16">
+        <v>1.62</v>
+      </c>
+      <c r="AE16">
+        <v>1.17</v>
+      </c>
+      <c r="AF16">
+        <v>1.32</v>
+      </c>
+      <c r="AG16">
+        <v>1.57</v>
+      </c>
+      <c r="AH16">
+        <v>1.94</v>
+      </c>
+      <c r="AI16">
+        <v>2.43</v>
+      </c>
+    </row>
+    <row r="17" spans="1:35">
+      <c r="A17" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" s="2">
+        <v>45098</v>
+      </c>
+      <c r="C17" t="s">
+        <v>46</v>
+      </c>
+      <c r="D17">
+        <v>11</v>
+      </c>
+      <c r="E17" t="s">
+        <v>66</v>
+      </c>
+      <c r="F17" t="s">
+        <v>93</v>
+      </c>
+      <c r="G17">
+        <v>2.17</v>
+      </c>
+      <c r="H17">
+        <v>3.41</v>
+      </c>
+      <c r="I17">
+        <v>3.5</v>
+      </c>
+      <c r="J17">
+        <v>1.07</v>
+      </c>
+      <c r="K17">
+        <v>9</v>
+      </c>
+      <c r="L17">
+        <v>1.38</v>
+      </c>
+      <c r="M17">
+        <v>3</v>
+      </c>
+      <c r="N17">
+        <v>2.3</v>
+      </c>
+      <c r="O17">
+        <v>1.6</v>
+      </c>
+      <c r="P17">
+        <v>1.44</v>
+      </c>
+      <c r="Q17">
+        <v>2.63</v>
+      </c>
+      <c r="R17">
+        <v>1.8</v>
+      </c>
+      <c r="S17">
+        <v>1.95</v>
+      </c>
+      <c r="T17">
+        <v>1.37</v>
+      </c>
+      <c r="U17">
+        <v>1.33</v>
+      </c>
+      <c r="V17">
+        <v>1.55</v>
+      </c>
+      <c r="W17">
+        <v>2.5</v>
+      </c>
+      <c r="X17">
+        <v>2</v>
+      </c>
+      <c r="Y17">
+        <v>1.92</v>
+      </c>
+      <c r="Z17">
+        <v>1.42</v>
+      </c>
+      <c r="AA17">
+        <v>3.34</v>
+      </c>
+      <c r="AB17">
+        <v>1.94</v>
+      </c>
+      <c r="AC17">
+        <v>8</v>
+      </c>
+      <c r="AD17">
+        <v>2.1</v>
+      </c>
+      <c r="AE17">
+        <v>1.17</v>
+      </c>
+      <c r="AF17">
+        <v>1.3</v>
+      </c>
+      <c r="AG17">
+        <v>1.83</v>
+      </c>
+      <c r="AH17">
+        <v>1.92</v>
+      </c>
+      <c r="AI17">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:35">
+      <c r="A18" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" s="2">
+        <v>45098</v>
+      </c>
+      <c r="C18" t="s">
+        <v>46</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18" t="s">
+        <v>67</v>
+      </c>
+      <c r="F18" t="s">
+        <v>94</v>
+      </c>
+      <c r="G18">
+        <v>1.8</v>
+      </c>
+      <c r="H18">
+        <v>3.8</v>
+      </c>
+      <c r="I18">
+        <v>4</v>
+      </c>
+      <c r="J18">
+        <v>1.02</v>
+      </c>
+      <c r="K18">
+        <v>17</v>
+      </c>
+      <c r="L18">
+        <v>1.2</v>
+      </c>
+      <c r="M18">
+        <v>4.5</v>
+      </c>
+      <c r="N18">
+        <v>1.58</v>
+      </c>
+      <c r="O18">
+        <v>2.18</v>
+      </c>
+      <c r="P18">
+        <v>1.3</v>
+      </c>
+      <c r="Q18">
+        <v>3.25</v>
+      </c>
+      <c r="R18">
+        <v>1.6</v>
+      </c>
+      <c r="S18">
+        <v>2.15</v>
+      </c>
+      <c r="T18">
+        <v>1.25</v>
+      </c>
+      <c r="U18">
+        <v>1.24</v>
+      </c>
+      <c r="V18">
+        <v>1.93</v>
+      </c>
+      <c r="W18">
+        <v>2.11</v>
+      </c>
+      <c r="X18">
+        <v>1.56</v>
+      </c>
+      <c r="Y18">
+        <v>1.65</v>
+      </c>
+      <c r="Z18">
+        <v>1.41</v>
+      </c>
+      <c r="AA18">
+        <v>3.06</v>
+      </c>
+      <c r="AB18">
+        <v>1.43</v>
+      </c>
+      <c r="AC18">
+        <v>8</v>
+      </c>
+      <c r="AD18">
+        <v>3.5</v>
+      </c>
+      <c r="AE18">
+        <v>1.26</v>
+      </c>
+      <c r="AF18">
+        <v>1.48</v>
+      </c>
+      <c r="AG18">
+        <v>1.88</v>
+      </c>
+      <c r="AH18">
+        <v>2.43</v>
+      </c>
+      <c r="AI18">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:35">
+      <c r="A19" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19" s="2">
+        <v>45098</v>
+      </c>
+      <c r="C19" t="s">
+        <v>46</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19" t="s">
+        <v>68</v>
+      </c>
+      <c r="F19" t="s">
+        <v>95</v>
+      </c>
+      <c r="G19">
+        <v>1.95</v>
+      </c>
+      <c r="H19">
+        <v>3.6</v>
+      </c>
+      <c r="I19">
+        <v>3.75</v>
+      </c>
+      <c r="J19">
+        <v>1.02</v>
+      </c>
+      <c r="K19">
+        <v>15</v>
+      </c>
+      <c r="L19">
+        <v>1.22</v>
+      </c>
+      <c r="M19">
+        <v>4.2</v>
+      </c>
+      <c r="N19">
+        <v>1.66</v>
+      </c>
+      <c r="O19">
+        <v>2.05</v>
+      </c>
+      <c r="P19">
+        <v>1.33</v>
+      </c>
+      <c r="Q19">
+        <v>3</v>
+      </c>
+      <c r="R19">
+        <v>1.62</v>
+      </c>
+      <c r="S19">
+        <v>2.15</v>
+      </c>
+      <c r="T19">
+        <v>1.27</v>
+      </c>
+      <c r="U19">
+        <v>1.27</v>
+      </c>
+      <c r="V19">
+        <v>1.83</v>
+      </c>
+      <c r="W19">
+        <v>2.38</v>
+      </c>
+      <c r="X19">
+        <v>0.67</v>
+      </c>
+      <c r="Y19">
+        <v>1.33</v>
+      </c>
+      <c r="Z19">
+        <v>1.18</v>
+      </c>
+      <c r="AA19">
+        <v>2.51</v>
+      </c>
+      <c r="AB19">
+        <v>1.78</v>
+      </c>
+      <c r="AC19">
+        <v>7.5</v>
+      </c>
+      <c r="AD19">
+        <v>2.4</v>
+      </c>
+      <c r="AE19">
+        <v>1.2</v>
+      </c>
+      <c r="AF19">
+        <v>1.38</v>
+      </c>
+      <c r="AG19">
+        <v>1.67</v>
+      </c>
+      <c r="AH19">
+        <v>2.12</v>
+      </c>
+      <c r="AI19">
+        <v>2.85</v>
+      </c>
+    </row>
+    <row r="20" spans="1:35">
+      <c r="A20" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20" s="2">
+        <v>45098</v>
+      </c>
+      <c r="C20" t="s">
+        <v>46</v>
+      </c>
+      <c r="D20">
+        <v>21</v>
+      </c>
+      <c r="E20" t="s">
+        <v>69</v>
+      </c>
+      <c r="F20" t="s">
+        <v>96</v>
+      </c>
+      <c r="G20">
+        <v>2.2</v>
+      </c>
+      <c r="H20">
+        <v>3.1</v>
+      </c>
+      <c r="I20">
+        <v>3.5</v>
+      </c>
+      <c r="J20">
+        <v>1.1</v>
+      </c>
+      <c r="K20">
+        <v>7</v>
+      </c>
+      <c r="L20">
+        <v>1.53</v>
+      </c>
+      <c r="M20">
+        <v>2.5</v>
+      </c>
+      <c r="N20">
+        <v>2.65</v>
+      </c>
+      <c r="O20">
+        <v>1.47</v>
+      </c>
+      <c r="P20">
+        <v>1.55</v>
+      </c>
+      <c r="Q20">
+        <v>2.25</v>
+      </c>
+      <c r="R20">
+        <v>2.15</v>
+      </c>
+      <c r="S20">
+        <v>1.6</v>
+      </c>
+      <c r="T20">
+        <v>1.29</v>
+      </c>
+      <c r="U20">
+        <v>1.35</v>
+      </c>
+      <c r="V20">
+        <v>1.63</v>
+      </c>
+      <c r="W20">
+        <v>1.3</v>
+      </c>
+      <c r="X20">
+        <v>0.7</v>
+      </c>
+      <c r="Y20">
+        <v>1.56</v>
+      </c>
+      <c r="Z20">
+        <v>1.29</v>
+      </c>
+      <c r="AA20">
+        <v>2.85</v>
+      </c>
+      <c r="AB20">
+        <v>1.82</v>
+      </c>
+      <c r="AC20">
+        <v>8</v>
+      </c>
+      <c r="AD20">
+        <v>2.33</v>
+      </c>
+      <c r="AE20">
+        <v>1.22</v>
+      </c>
+      <c r="AF20">
+        <v>1.41</v>
+      </c>
+      <c r="AG20">
+        <v>1.73</v>
+      </c>
+      <c r="AH20">
+        <v>2.23</v>
+      </c>
+      <c r="AI20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:35">
+      <c r="A21" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" s="2">
+        <v>45098</v>
+      </c>
+      <c r="C21" t="s">
+        <v>47</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21" t="s">
+        <v>70</v>
+      </c>
+      <c r="F21" t="s">
+        <v>97</v>
+      </c>
+      <c r="G21">
+        <v>2.11</v>
+      </c>
+      <c r="H21">
+        <v>3.62</v>
+      </c>
+      <c r="I21">
+        <v>2.99</v>
+      </c>
+      <c r="J21">
+        <v>1.05</v>
+      </c>
+      <c r="K21">
+        <v>9</v>
+      </c>
+      <c r="L21">
+        <v>1.25</v>
+      </c>
+      <c r="M21">
+        <v>3.6</v>
+      </c>
+      <c r="N21">
+        <v>1.73</v>
+      </c>
+      <c r="O21">
+        <v>1.91</v>
+      </c>
+      <c r="P21">
+        <v>1.36</v>
+      </c>
+      <c r="Q21">
+        <v>3</v>
+      </c>
+      <c r="R21">
+        <v>1.63</v>
+      </c>
+      <c r="S21">
+        <v>2.09</v>
+      </c>
+      <c r="T21">
+        <v>1.33</v>
+      </c>
+      <c r="U21">
+        <v>1.26</v>
+      </c>
+      <c r="V21">
+        <v>1.62</v>
+      </c>
+      <c r="W21">
+        <v>1.6</v>
+      </c>
+      <c r="X21">
+        <v>1.14</v>
+      </c>
+      <c r="Y21">
+        <v>1.17</v>
+      </c>
+      <c r="Z21">
+        <v>1.24</v>
+      </c>
+      <c r="AA21">
+        <v>2.41</v>
+      </c>
+      <c r="AB21">
+        <v>0</v>
+      </c>
+      <c r="AC21">
+        <v>0</v>
+      </c>
+      <c r="AD21">
+        <v>0</v>
+      </c>
+      <c r="AE21">
+        <v>0</v>
+      </c>
+      <c r="AF21">
+        <v>1.6</v>
+      </c>
+      <c r="AG21">
+        <v>1.98</v>
+      </c>
+      <c r="AH21">
+        <v>2.49</v>
+      </c>
+      <c r="AI21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:35">
+      <c r="A22" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22" s="2">
+        <v>45098</v>
+      </c>
+      <c r="C22" t="s">
+        <v>47</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22" t="s">
+        <v>71</v>
+      </c>
+      <c r="F22" t="s">
+        <v>98</v>
+      </c>
+      <c r="G22">
+        <v>1.99</v>
+      </c>
+      <c r="H22">
+        <v>3.32</v>
+      </c>
+      <c r="I22">
+        <v>4.17</v>
+      </c>
+      <c r="J22">
+        <v>1.07</v>
+      </c>
+      <c r="K22">
+        <v>10</v>
+      </c>
+      <c r="L22">
+        <v>1.34</v>
+      </c>
+      <c r="M22">
+        <v>3.24</v>
+      </c>
+      <c r="N22">
+        <v>2.05</v>
+      </c>
+      <c r="O22">
+        <v>1.75</v>
+      </c>
+      <c r="P22">
+        <v>1.42</v>
+      </c>
+      <c r="Q22">
+        <v>2.65</v>
+      </c>
+      <c r="R22">
+        <v>1.85</v>
+      </c>
+      <c r="S22">
+        <v>1.83</v>
+      </c>
+      <c r="T22">
+        <v>1.3</v>
+      </c>
+      <c r="U22">
+        <v>1.3</v>
+      </c>
+      <c r="V22">
+        <v>1.72</v>
+      </c>
+      <c r="W22">
+        <v>1.81</v>
+      </c>
+      <c r="X22">
+        <v>1.96</v>
+      </c>
+      <c r="Y22">
+        <v>1.55</v>
+      </c>
+      <c r="Z22">
+        <v>1.04</v>
+      </c>
+      <c r="AA22">
+        <v>2.59</v>
+      </c>
+      <c r="AB22">
         <v>1.69</v>
       </c>
-      <c r="O15">
+      <c r="AC22">
+        <v>8.5</v>
+      </c>
+      <c r="AD22">
+        <v>2.6</v>
+      </c>
+      <c r="AE22">
+        <v>1.2</v>
+      </c>
+      <c r="AF22">
+        <v>1.44</v>
+      </c>
+      <c r="AG22">
+        <v>1.75</v>
+      </c>
+      <c r="AH22">
+        <v>2.15</v>
+      </c>
+      <c r="AI22">
+        <v>2.63</v>
+      </c>
+    </row>
+    <row r="23" spans="1:35">
+      <c r="A23" t="s">
+        <v>39</v>
+      </c>
+      <c r="B23" s="2">
+        <v>45098</v>
+      </c>
+      <c r="C23" t="s">
+        <v>48</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23" t="s">
+        <v>72</v>
+      </c>
+      <c r="F23" t="s">
+        <v>99</v>
+      </c>
+      <c r="G23">
+        <v>2.1</v>
+      </c>
+      <c r="H23">
+        <v>3.4</v>
+      </c>
+      <c r="I23">
+        <v>3.4</v>
+      </c>
+      <c r="J23">
+        <v>1.04</v>
+      </c>
+      <c r="K23">
+        <v>12</v>
+      </c>
+      <c r="L23">
+        <v>1.28</v>
+      </c>
+      <c r="M23">
+        <v>3.6</v>
+      </c>
+      <c r="N23">
         <v>1.84</v>
       </c>
-      <c r="P15">
+      <c r="O23">
+        <v>2.02</v>
+      </c>
+      <c r="P23">
+        <v>1.37</v>
+      </c>
+      <c r="Q23">
+        <v>2.8</v>
+      </c>
+      <c r="R23">
+        <v>1.72</v>
+      </c>
+      <c r="S23">
+        <v>1.98</v>
+      </c>
+      <c r="T23">
+        <v>1.3</v>
+      </c>
+      <c r="U23">
+        <v>1.3</v>
+      </c>
+      <c r="V23">
+        <v>1.7</v>
+      </c>
+      <c r="W23">
+        <v>0.5</v>
+      </c>
+      <c r="X23">
+        <v>0.43</v>
+      </c>
+      <c r="Y23">
+        <v>1.54</v>
+      </c>
+      <c r="Z23">
+        <v>1.41</v>
+      </c>
+      <c r="AA23">
+        <v>2.95</v>
+      </c>
+      <c r="AB23">
+        <v>1.71</v>
+      </c>
+      <c r="AC23">
+        <v>7</v>
+      </c>
+      <c r="AD23">
+        <v>2.55</v>
+      </c>
+      <c r="AE23">
+        <v>1.24</v>
+      </c>
+      <c r="AF23">
+        <v>1.44</v>
+      </c>
+      <c r="AG23">
+        <v>1.8</v>
+      </c>
+      <c r="AH23">
+        <v>2.3</v>
+      </c>
+      <c r="AI23">
+        <v>3.15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:35">
+      <c r="A24" t="s">
+        <v>39</v>
+      </c>
+      <c r="B24" s="2">
+        <v>45098</v>
+      </c>
+      <c r="C24" t="s">
+        <v>48</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24" t="s">
+        <v>73</v>
+      </c>
+      <c r="F24" t="s">
+        <v>100</v>
+      </c>
+      <c r="G24">
+        <v>2.2</v>
+      </c>
+      <c r="H24">
+        <v>3.4</v>
+      </c>
+      <c r="I24">
+        <v>3.2</v>
+      </c>
+      <c r="J24">
+        <v>1.04</v>
+      </c>
+      <c r="K24">
+        <v>10.5</v>
+      </c>
+      <c r="L24">
+        <v>1.25</v>
+      </c>
+      <c r="M24">
+        <v>3.65</v>
+      </c>
+      <c r="N24">
+        <v>1.84</v>
+      </c>
+      <c r="O24">
+        <v>2.02</v>
+      </c>
+      <c r="P24">
+        <v>1.3</v>
+      </c>
+      <c r="Q24">
+        <v>3</v>
+      </c>
+      <c r="R24">
+        <v>1.74</v>
+      </c>
+      <c r="S24">
+        <v>2.05</v>
+      </c>
+      <c r="T24">
+        <v>1.3</v>
+      </c>
+      <c r="U24">
+        <v>1.3</v>
+      </c>
+      <c r="V24">
+        <v>1.81</v>
+      </c>
+      <c r="W24">
+        <v>1.33</v>
+      </c>
+      <c r="X24">
+        <v>1</v>
+      </c>
+      <c r="Y24">
+        <v>1.5</v>
+      </c>
+      <c r="Z24">
+        <v>1.31</v>
+      </c>
+      <c r="AA24">
+        <v>2.81</v>
+      </c>
+      <c r="AB24">
+        <v>1.53</v>
+      </c>
+      <c r="AC24">
+        <v>7.5</v>
+      </c>
+      <c r="AD24">
+        <v>3.05</v>
+      </c>
+      <c r="AE24">
+        <v>1.24</v>
+      </c>
+      <c r="AF24">
+        <v>1.45</v>
+      </c>
+      <c r="AG24">
+        <v>1.83</v>
+      </c>
+      <c r="AH24">
+        <v>2.33</v>
+      </c>
+      <c r="AI24">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:35">
+      <c r="A25" t="s">
+        <v>38</v>
+      </c>
+      <c r="B25" s="2">
+        <v>45098</v>
+      </c>
+      <c r="C25" t="s">
+        <v>49</v>
+      </c>
+      <c r="D25">
+        <v>11</v>
+      </c>
+      <c r="E25" t="s">
+        <v>74</v>
+      </c>
+      <c r="F25" t="s">
+        <v>101</v>
+      </c>
+      <c r="G25">
+        <v>1.67</v>
+      </c>
+      <c r="H25">
+        <v>3.45</v>
+      </c>
+      <c r="I25">
+        <v>4.7</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>2.04</v>
+      </c>
+      <c r="O25">
+        <v>1.76</v>
+      </c>
+      <c r="P25">
+        <v>1.44</v>
+      </c>
+      <c r="Q25">
+        <v>2.63</v>
+      </c>
+      <c r="R25">
+        <v>2.2</v>
+      </c>
+      <c r="S25">
+        <v>1.62</v>
+      </c>
+      <c r="T25">
+        <v>0</v>
+      </c>
+      <c r="U25">
+        <v>0</v>
+      </c>
+      <c r="V25">
+        <v>0</v>
+      </c>
+      <c r="W25">
+        <v>1.83</v>
+      </c>
+      <c r="X25">
+        <v>1</v>
+      </c>
+      <c r="Y25">
+        <v>1.54</v>
+      </c>
+      <c r="Z25">
+        <v>1.45</v>
+      </c>
+      <c r="AA25">
+        <v>2.99</v>
+      </c>
+      <c r="AB25">
+        <v>0</v>
+      </c>
+      <c r="AC25">
+        <v>0</v>
+      </c>
+      <c r="AD25">
+        <v>0</v>
+      </c>
+      <c r="AE25">
+        <v>0</v>
+      </c>
+      <c r="AF25">
+        <v>0</v>
+      </c>
+      <c r="AG25">
+        <v>0</v>
+      </c>
+      <c r="AH25">
+        <v>0</v>
+      </c>
+      <c r="AI25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:35">
+      <c r="A26" t="s">
+        <v>39</v>
+      </c>
+      <c r="B26" s="2">
+        <v>45098</v>
+      </c>
+      <c r="C26" t="s">
+        <v>50</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26" t="s">
+        <v>75</v>
+      </c>
+      <c r="F26" t="s">
+        <v>102</v>
+      </c>
+      <c r="G26">
+        <v>2.1</v>
+      </c>
+      <c r="H26">
+        <v>3.4</v>
+      </c>
+      <c r="I26">
+        <v>3.4</v>
+      </c>
+      <c r="J26">
+        <v>1.03</v>
+      </c>
+      <c r="K26">
+        <v>13</v>
+      </c>
+      <c r="L26">
+        <v>1.22</v>
+      </c>
+      <c r="M26">
+        <v>4</v>
+      </c>
+      <c r="N26">
+        <v>1.83</v>
+      </c>
+      <c r="O26">
+        <v>2.03</v>
+      </c>
+      <c r="P26">
         <v>1.35</v>
       </c>
-      <c r="Q15">
-        <v>2.94</v>
-      </c>
-      <c r="R15">
-        <v>1.66</v>
-      </c>
-      <c r="S15">
-        <v>2.15</v>
-      </c>
-      <c r="T15">
+      <c r="Q26">
+        <v>2.9</v>
+      </c>
+      <c r="R26">
+        <v>1.65</v>
+      </c>
+      <c r="S26">
+        <v>2.1</v>
+      </c>
+      <c r="T26">
+        <v>1.31</v>
+      </c>
+      <c r="U26">
+        <v>1.29</v>
+      </c>
+      <c r="V26">
+        <v>1.7</v>
+      </c>
+      <c r="W26">
+        <v>1</v>
+      </c>
+      <c r="X26">
+        <v>0.7</v>
+      </c>
+      <c r="Y26">
+        <v>1.93</v>
+      </c>
+      <c r="Z26">
+        <v>1.42</v>
+      </c>
+      <c r="AA26">
+        <v>3.35</v>
+      </c>
+      <c r="AB26">
+        <v>1.79</v>
+      </c>
+      <c r="AC26">
+        <v>7</v>
+      </c>
+      <c r="AD26">
+        <v>2.4</v>
+      </c>
+      <c r="AE26">
+        <v>1.22</v>
+      </c>
+      <c r="AF26">
+        <v>1.42</v>
+      </c>
+      <c r="AG26">
+        <v>1.74</v>
+      </c>
+      <c r="AH26">
+        <v>2.23</v>
+      </c>
+      <c r="AI26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:35">
+      <c r="A27" t="s">
+        <v>39</v>
+      </c>
+      <c r="B27" s="2">
+        <v>45098</v>
+      </c>
+      <c r="C27" t="s">
+        <v>50</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27" t="s">
+        <v>76</v>
+      </c>
+      <c r="F27" t="s">
+        <v>103</v>
+      </c>
+      <c r="G27">
+        <v>1.95</v>
+      </c>
+      <c r="H27">
+        <v>3.5</v>
+      </c>
+      <c r="I27">
+        <v>3.8</v>
+      </c>
+      <c r="J27">
+        <v>1.03</v>
+      </c>
+      <c r="K27">
+        <v>13</v>
+      </c>
+      <c r="L27">
+        <v>1.25</v>
+      </c>
+      <c r="M27">
+        <v>3.75</v>
+      </c>
+      <c r="N27">
+        <v>1.83</v>
+      </c>
+      <c r="O27">
+        <v>2.03</v>
+      </c>
+      <c r="P27">
+        <v>1.36</v>
+      </c>
+      <c r="Q27">
+        <v>3.2</v>
+      </c>
+      <c r="R27">
+        <v>1.75</v>
+      </c>
+      <c r="S27">
+        <v>2.05</v>
+      </c>
+      <c r="T27">
+        <v>1.2</v>
+      </c>
+      <c r="U27">
+        <v>1.2</v>
+      </c>
+      <c r="V27">
+        <v>2.1</v>
+      </c>
+      <c r="W27">
+        <v>2.13</v>
+      </c>
+      <c r="X27">
+        <v>1.38</v>
+      </c>
+      <c r="Y27">
+        <v>1.98</v>
+      </c>
+      <c r="Z27">
+        <v>1.27</v>
+      </c>
+      <c r="AA27">
+        <v>3.25</v>
+      </c>
+      <c r="AB27">
+        <v>1.41</v>
+      </c>
+      <c r="AC27">
+        <v>8</v>
+      </c>
+      <c r="AD27">
+        <v>3.5</v>
+      </c>
+      <c r="AE27">
+        <v>1.18</v>
+      </c>
+      <c r="AF27">
+        <v>1.34</v>
+      </c>
+      <c r="AG27">
+        <v>1.61</v>
+      </c>
+      <c r="AH27">
+        <v>2.02</v>
+      </c>
+      <c r="AI27">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:35">
+      <c r="A28" t="s">
+        <v>39</v>
+      </c>
+      <c r="B28" s="2">
+        <v>45098</v>
+      </c>
+      <c r="C28" t="s">
+        <v>50</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28" t="s">
+        <v>77</v>
+      </c>
+      <c r="F28" t="s">
+        <v>104</v>
+      </c>
+      <c r="G28">
+        <v>1.95</v>
+      </c>
+      <c r="H28">
+        <v>3.4</v>
+      </c>
+      <c r="I28">
+        <v>3.9</v>
+      </c>
+      <c r="J28">
+        <v>1.04</v>
+      </c>
+      <c r="K28">
+        <v>12</v>
+      </c>
+      <c r="L28">
         <v>1.3</v>
       </c>
-      <c r="U15">
+      <c r="M28">
+        <v>3.5</v>
+      </c>
+      <c r="N28">
+        <v>1.93</v>
+      </c>
+      <c r="O28">
+        <v>1.93</v>
+      </c>
+      <c r="P28">
+        <v>1.37</v>
+      </c>
+      <c r="Q28">
+        <v>2.8</v>
+      </c>
+      <c r="R28">
+        <v>1.75</v>
+      </c>
+      <c r="S28">
+        <v>1.93</v>
+      </c>
+      <c r="T28">
         <v>1.25</v>
       </c>
-      <c r="V15">
-        <v>1.57</v>
-      </c>
-      <c r="W15">
+      <c r="U28">
+        <v>1.28</v>
+      </c>
+      <c r="V28">
+        <v>1.85</v>
+      </c>
+      <c r="W28">
+        <v>1.75</v>
+      </c>
+      <c r="X28">
         <v>0.63</v>
       </c>
-      <c r="X15">
-        <v>1.13</v>
-      </c>
-      <c r="Y15">
-        <v>1.91</v>
-      </c>
-      <c r="Z15">
-        <v>1.39</v>
-      </c>
-      <c r="AA15">
-        <v>3.3</v>
-      </c>
-      <c r="AB15">
-        <v>0</v>
-      </c>
-      <c r="AC15">
-        <v>0</v>
-      </c>
-      <c r="AD15">
-        <v>0</v>
-      </c>
-      <c r="AE15">
-        <v>0</v>
-      </c>
-      <c r="AF15">
-        <v>0</v>
-      </c>
-      <c r="AG15">
-        <v>0</v>
-      </c>
-      <c r="AH15">
-        <v>0</v>
-      </c>
-      <c r="AI15">
-        <v>0</v>
+      <c r="Y28">
+        <v>1.61</v>
+      </c>
+      <c r="Z28">
+        <v>1.03</v>
+      </c>
+      <c r="AA28">
+        <v>2.64</v>
+      </c>
+      <c r="AB28">
+        <v>1.47</v>
+      </c>
+      <c r="AC28">
+        <v>7.5</v>
+      </c>
+      <c r="AD28">
+        <v>3.25</v>
+      </c>
+      <c r="AE28">
+        <v>1.22</v>
+      </c>
+      <c r="AF28">
+        <v>1.42</v>
+      </c>
+      <c r="AG28">
+        <v>1.74</v>
+      </c>
+      <c r="AH28">
+        <v>2.23</v>
+      </c>
+      <c r="AI28">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia/2023-06-21_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-06-21_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -124,12 +124,12 @@
     <t>Brazil Serie A</t>
   </si>
   <si>
+    <t>Brazil Serie B</t>
+  </si>
+  <si>
     <t>Argentina Primera División</t>
   </si>
   <si>
-    <t>Brazil Serie B</t>
-  </si>
-  <si>
     <t>Canada Canadian Premier League</t>
   </si>
   <si>
@@ -169,37 +169,40 @@
     <t>23:30:00</t>
   </si>
   <si>
+    <t>São Paulo</t>
+  </si>
+  <si>
     <t>Cruzeiro</t>
   </si>
   <si>
-    <t>São Paulo</t>
+    <t>CRB</t>
   </si>
   <si>
     <t>Estudiantes</t>
   </si>
   <si>
-    <t>CRB</t>
+    <t>York9 FC</t>
   </si>
   <si>
     <t>Santos</t>
   </si>
   <si>
-    <t>York9 FC</t>
+    <t>FC Cincinnati</t>
+  </si>
+  <si>
+    <t>Atlanta United FC</t>
+  </si>
+  <si>
+    <t>Montreal Impact</t>
+  </si>
+  <si>
+    <t>New York RB</t>
   </si>
   <si>
     <t>Orlando City</t>
   </si>
   <si>
-    <t>New York RB</t>
-  </si>
-  <si>
-    <t>FC Cincinnati</t>
-  </si>
-  <si>
-    <t>Atlanta United FC</t>
-  </si>
-  <si>
-    <t>Montreal Impact</t>
+    <t>Birmingham Legion</t>
   </si>
   <si>
     <t>Rio Grande Valley</t>
@@ -208,7 +211,7 @@
     <t>Memphis 901</t>
   </si>
   <si>
-    <t>Birmingham Legion</t>
+    <t>Central Córdoba SdE</t>
   </si>
   <si>
     <t>Bahia</t>
@@ -223,15 +226,12 @@
     <t>Houston Dynamo</t>
   </si>
   <si>
-    <t>Central Córdoba SdE</t>
+    <t>Atlético Nacional</t>
   </si>
   <si>
     <t>New Mexico United</t>
   </si>
   <si>
-    <t>Atlético Nacional</t>
-  </si>
-  <si>
     <t>Colorado Rapids</t>
   </si>
   <si>
@@ -244,43 +244,46 @@
     <t>LA Galaxy</t>
   </si>
   <si>
+    <t>Portland Timbers</t>
+  </si>
+  <si>
     <t>Los Angeles FC</t>
   </si>
   <si>
-    <t>Portland Timbers</t>
+    <t>Atlético PR</t>
   </si>
   <si>
     <t>Fortaleza</t>
   </si>
   <si>
-    <t>Atlético PR</t>
+    <t>Ituano</t>
   </si>
   <si>
     <t>San Lorenzo</t>
   </si>
   <si>
-    <t>Ituano</t>
+    <t>HFX Wanderers FC</t>
   </si>
   <si>
     <t>Corinthians</t>
   </si>
   <si>
-    <t>HFX Wanderers FC</t>
+    <t>Toronto</t>
+  </si>
+  <si>
+    <t>New York City</t>
+  </si>
+  <si>
+    <t>Nashville SC</t>
+  </si>
+  <si>
+    <t>Charlotte</t>
   </si>
   <si>
     <t>Philadelphia Union</t>
   </si>
   <si>
-    <t>Charlotte</t>
-  </si>
-  <si>
-    <t>Toronto</t>
-  </si>
-  <si>
-    <t>New York City</t>
-  </si>
-  <si>
-    <t>Nashville SC</t>
+    <t>Loudoun United</t>
   </si>
   <si>
     <t>Colorado Springs</t>
@@ -289,7 +292,7 @@
     <t>Tulsa Roughnecks</t>
   </si>
   <si>
-    <t>Loudoun United</t>
+    <t>Gimnasia La Plata</t>
   </si>
   <si>
     <t>Palmeiras</t>
@@ -304,15 +307,12 @@
     <t>SJ Earthquakes</t>
   </si>
   <si>
-    <t>Gimnasia La Plata</t>
+    <t>Millonarios</t>
   </si>
   <si>
     <t>Phoenix Rising</t>
   </si>
   <si>
-    <t>Millonarios</t>
-  </si>
-  <si>
     <t>Vancouver Whitecaps</t>
   </si>
   <si>
@@ -325,10 +325,10 @@
     <t>Sporting KC</t>
   </si>
   <si>
+    <t>Chicago Fire</t>
+  </si>
+  <si>
     <t>Seattle Sounders</t>
-  </si>
-  <si>
-    <t>Chicago Fire</t>
   </si>
 </sst>
 </file>
@@ -823,13 +823,13 @@
         <v>78</v>
       </c>
       <c r="G2">
-        <v>2.01</v>
+        <v>1.83</v>
       </c>
       <c r="H2">
-        <v>3.42</v>
+        <v>3.25</v>
       </c>
       <c r="I2">
-        <v>4.01</v>
+        <v>4.4</v>
       </c>
       <c r="J2">
         <v>1.06</v>
@@ -838,16 +838,16 @@
         <v>9.5</v>
       </c>
       <c r="L2">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="M2">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="N2">
-        <v>2.15</v>
+        <v>2.07</v>
       </c>
       <c r="O2">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="P2">
         <v>1.44</v>
@@ -856,58 +856,58 @@
         <v>2.63</v>
       </c>
       <c r="R2">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="S2">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="T2">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="U2">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="V2">
-        <v>1.72</v>
+        <v>1.93</v>
       </c>
       <c r="W2">
-        <v>1.2</v>
+        <v>2.4</v>
       </c>
       <c r="X2">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="Y2">
-        <v>2</v>
+        <v>1.84</v>
       </c>
       <c r="Z2">
-        <v>1.68</v>
+        <v>1.32</v>
       </c>
       <c r="AA2">
-        <v>3.68</v>
+        <v>3.16</v>
       </c>
       <c r="AB2">
-        <v>1.54</v>
+        <v>1.35</v>
       </c>
       <c r="AC2">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="AD2">
-        <v>2.9</v>
+        <v>3.85</v>
       </c>
       <c r="AE2">
         <v>1.18</v>
       </c>
       <c r="AF2">
-        <v>1.3</v>
+        <v>1.26</v>
       </c>
       <c r="AG2">
-        <v>1.54</v>
+        <v>1.46</v>
       </c>
       <c r="AH2">
-        <v>1.88</v>
+        <v>1.77</v>
       </c>
       <c r="AI2">
-        <v>2.35</v>
+        <v>2.18</v>
       </c>
     </row>
     <row r="3" spans="1:35">
@@ -930,13 +930,13 @@
         <v>79</v>
       </c>
       <c r="G3">
-        <v>1.86</v>
+        <v>2.05</v>
       </c>
       <c r="H3">
-        <v>3.56</v>
+        <v>3.1</v>
       </c>
       <c r="I3">
-        <v>4.61</v>
+        <v>3.7</v>
       </c>
       <c r="J3">
         <v>1.06</v>
@@ -945,16 +945,16 @@
         <v>9.5</v>
       </c>
       <c r="L3">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="M3">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="N3">
         <v>2.15</v>
       </c>
       <c r="O3">
-        <v>1.68</v>
+        <v>1.62</v>
       </c>
       <c r="P3">
         <v>1.44</v>
@@ -963,58 +963,58 @@
         <v>2.63</v>
       </c>
       <c r="R3">
+        <v>1.8</v>
+      </c>
+      <c r="S3">
         <v>1.95</v>
       </c>
-      <c r="S3">
-        <v>1.8</v>
-      </c>
       <c r="T3">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="U3">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="V3">
-        <v>1.93</v>
+        <v>1.72</v>
       </c>
       <c r="W3">
-        <v>2.4</v>
+        <v>1.2</v>
       </c>
       <c r="X3">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="Y3">
-        <v>1.84</v>
+        <v>2</v>
       </c>
       <c r="Z3">
-        <v>1.32</v>
+        <v>1.68</v>
       </c>
       <c r="AA3">
-        <v>3.16</v>
+        <v>3.68</v>
       </c>
       <c r="AB3">
-        <v>1.41</v>
+        <v>1.48</v>
       </c>
       <c r="AC3">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AD3">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="AE3">
         <v>1.18</v>
       </c>
       <c r="AF3">
-        <v>1.26</v>
+        <v>1.3</v>
       </c>
       <c r="AG3">
-        <v>1.46</v>
+        <v>1.54</v>
       </c>
       <c r="AH3">
-        <v>1.77</v>
+        <v>1.88</v>
       </c>
       <c r="AI3">
-        <v>2.18</v>
+        <v>2.35</v>
       </c>
     </row>
     <row r="4" spans="1:35">
@@ -1028,7 +1028,7 @@
         <v>42</v>
       </c>
       <c r="D4">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="E4" t="s">
         <v>53</v>
@@ -1037,91 +1037,91 @@
         <v>80</v>
       </c>
       <c r="G4">
-        <v>2.19</v>
+        <v>2.16</v>
       </c>
       <c r="H4">
-        <v>2.97</v>
+        <v>3.1</v>
       </c>
       <c r="I4">
-        <v>3.78</v>
+        <v>3.2</v>
       </c>
       <c r="J4">
-        <v>1.14</v>
+        <v>1.1</v>
       </c>
       <c r="K4">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="L4">
-        <v>1.67</v>
+        <v>1.45</v>
       </c>
       <c r="M4">
-        <v>2.1</v>
+        <v>2.6</v>
       </c>
       <c r="N4">
-        <v>3</v>
+        <v>2.37</v>
       </c>
       <c r="O4">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="P4">
+        <v>1.53</v>
+      </c>
+      <c r="Q4">
+        <v>2.38</v>
+      </c>
+      <c r="R4">
+        <v>2.2</v>
+      </c>
+      <c r="S4">
         <v>1.62</v>
       </c>
-      <c r="Q4">
-        <v>2.2</v>
-      </c>
-      <c r="R4">
-        <v>2.5</v>
-      </c>
-      <c r="S4">
-        <v>1.5</v>
-      </c>
       <c r="T4">
-        <v>1.29</v>
+        <v>1.18</v>
       </c>
       <c r="U4">
-        <v>1.4</v>
+        <v>1.28</v>
       </c>
       <c r="V4">
-        <v>1.57</v>
+        <v>1.8</v>
       </c>
       <c r="W4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X4">
-        <v>1.33</v>
+        <v>0.5</v>
       </c>
       <c r="Y4">
-        <v>1.52</v>
+        <v>1.49</v>
       </c>
       <c r="Z4">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="AA4">
-        <v>2.84</v>
+        <v>2.8</v>
       </c>
       <c r="AB4">
-        <v>1.82</v>
+        <v>1.62</v>
       </c>
       <c r="AC4">
         <v>7.5</v>
       </c>
       <c r="AD4">
-        <v>2.4</v>
+        <v>2.88</v>
       </c>
       <c r="AE4">
-        <v>1.36</v>
+        <v>1.2</v>
       </c>
       <c r="AF4">
+        <v>1.38</v>
+      </c>
+      <c r="AG4">
         <v>1.67</v>
       </c>
-      <c r="AG4">
-        <v>2.15</v>
-      </c>
       <c r="AH4">
-        <v>2.95</v>
+        <v>2.12</v>
       </c>
       <c r="AI4">
-        <v>4.1</v>
+        <v>2.85</v>
       </c>
     </row>
     <row r="5" spans="1:35">
@@ -1135,7 +1135,7 @@
         <v>42</v>
       </c>
       <c r="D5">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="E5" t="s">
         <v>54</v>
@@ -1144,96 +1144,96 @@
         <v>81</v>
       </c>
       <c r="G5">
-        <v>1.97</v>
+        <v>2.19</v>
       </c>
       <c r="H5">
-        <v>3.26</v>
+        <v>2.97</v>
       </c>
       <c r="I5">
-        <v>4.04</v>
+        <v>3.78</v>
       </c>
       <c r="J5">
-        <v>1.1</v>
+        <v>1.14</v>
       </c>
       <c r="K5">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="L5">
-        <v>1.45</v>
+        <v>1.67</v>
       </c>
       <c r="M5">
-        <v>2.6</v>
+        <v>2.1</v>
       </c>
       <c r="N5">
-        <v>2.35</v>
+        <v>3</v>
       </c>
       <c r="O5">
-        <v>1.55</v>
+        <v>1.36</v>
       </c>
       <c r="P5">
-        <v>1.53</v>
+        <v>1.62</v>
       </c>
       <c r="Q5">
-        <v>2.38</v>
+        <v>2.2</v>
       </c>
       <c r="R5">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="S5">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="T5">
-        <v>1.18</v>
+        <v>1.29</v>
       </c>
       <c r="U5">
-        <v>1.28</v>
+        <v>1.4</v>
       </c>
       <c r="V5">
-        <v>1.8</v>
+        <v>1.57</v>
       </c>
       <c r="W5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X5">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="Y5">
-        <v>1.49</v>
+        <v>1.52</v>
       </c>
       <c r="Z5">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="AA5">
-        <v>2.8</v>
+        <v>2.84</v>
       </c>
       <c r="AB5">
-        <v>1.62</v>
+        <v>1.82</v>
       </c>
       <c r="AC5">
         <v>7.5</v>
       </c>
       <c r="AD5">
-        <v>2.88</v>
+        <v>2.4</v>
       </c>
       <c r="AE5">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AF5">
-        <v>1.38</v>
+        <v>1.67</v>
       </c>
       <c r="AG5">
-        <v>1.67</v>
+        <v>2.15</v>
       </c>
       <c r="AH5">
-        <v>2.12</v>
+        <v>2.95</v>
       </c>
       <c r="AI5">
-        <v>2.85</v>
+        <v>4.1</v>
       </c>
     </row>
     <row r="6" spans="1:35">
       <c r="A6" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B6" s="2">
         <v>45098</v>
@@ -1251,96 +1251,96 @@
         <v>82</v>
       </c>
       <c r="G6">
-        <v>2.57</v>
+        <v>2.08</v>
       </c>
       <c r="H6">
-        <v>2.96</v>
+        <v>3.15</v>
       </c>
       <c r="I6">
-        <v>3.2</v>
+        <v>2.85</v>
       </c>
       <c r="J6">
-        <v>1.12</v>
+        <v>1.03</v>
       </c>
       <c r="K6">
-        <v>5.2</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="L6">
-        <v>1.5</v>
+        <v>1.32</v>
       </c>
       <c r="M6">
-        <v>2.5</v>
+        <v>2.98</v>
       </c>
       <c r="N6">
-        <v>2.4</v>
+        <v>2.06</v>
       </c>
       <c r="O6">
-        <v>1.55</v>
+        <v>1.7</v>
       </c>
       <c r="P6">
-        <v>1.57</v>
+        <v>1.44</v>
       </c>
       <c r="Q6">
-        <v>2.25</v>
+        <v>2.63</v>
       </c>
       <c r="R6">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="S6">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="T6">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="U6">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="V6">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="W6">
-        <v>1.8</v>
+        <v>1.2</v>
       </c>
       <c r="X6">
+        <v>0.83</v>
+      </c>
+      <c r="Y6">
+        <v>1.51</v>
+      </c>
+      <c r="Z6">
+        <v>1.4</v>
+      </c>
+      <c r="AA6">
+        <v>2.91</v>
+      </c>
+      <c r="AB6">
         <v>0</v>
       </c>
-      <c r="Y6">
-        <v>1.58</v>
-      </c>
-      <c r="Z6">
-        <v>1.12</v>
-      </c>
-      <c r="AA6">
-        <v>2.7</v>
-      </c>
-      <c r="AB6">
-        <v>1.77</v>
-      </c>
       <c r="AC6">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AD6">
-        <v>2.35</v>
+        <v>0</v>
       </c>
       <c r="AE6">
-        <v>1.22</v>
+        <v>0</v>
       </c>
       <c r="AF6">
-        <v>1.43</v>
+        <v>1.95</v>
       </c>
       <c r="AG6">
-        <v>2.1</v>
+        <v>0</v>
       </c>
       <c r="AH6">
-        <v>2.16</v>
+        <v>0</v>
       </c>
       <c r="AI6">
-        <v>2.75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:35">
       <c r="A7" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B7" s="2">
         <v>45098</v>
@@ -1358,91 +1358,91 @@
         <v>83</v>
       </c>
       <c r="G7">
-        <v>2.22</v>
+        <v>2.4</v>
       </c>
       <c r="H7">
-        <v>3.32</v>
+        <v>2.9</v>
       </c>
       <c r="I7">
-        <v>2.78</v>
+        <v>3.1</v>
       </c>
       <c r="J7">
-        <v>1.03</v>
+        <v>1.12</v>
       </c>
       <c r="K7">
-        <v>8.199999999999999</v>
+        <v>5.2</v>
       </c>
       <c r="L7">
-        <v>1.32</v>
+        <v>1.5</v>
       </c>
       <c r="M7">
-        <v>2.98</v>
+        <v>2.5</v>
       </c>
       <c r="N7">
-        <v>2.07</v>
+        <v>2.75</v>
       </c>
       <c r="O7">
-        <v>1.74</v>
+        <v>1.39</v>
       </c>
       <c r="P7">
-        <v>1.44</v>
+        <v>1.57</v>
       </c>
       <c r="Q7">
-        <v>2.63</v>
+        <v>2.25</v>
       </c>
       <c r="R7">
-        <v>1.91</v>
+        <v>2.2</v>
       </c>
       <c r="S7">
+        <v>1.62</v>
+      </c>
+      <c r="T7">
+        <v>1.35</v>
+      </c>
+      <c r="U7">
+        <v>1.33</v>
+      </c>
+      <c r="V7">
+        <v>1.57</v>
+      </c>
+      <c r="W7">
         <v>1.8</v>
       </c>
-      <c r="T7">
-        <v>1.36</v>
-      </c>
-      <c r="U7">
-        <v>1.29</v>
-      </c>
-      <c r="V7">
-        <v>1.53</v>
-      </c>
-      <c r="W7">
-        <v>1.2</v>
-      </c>
       <c r="X7">
-        <v>0.83</v>
+        <v>0</v>
       </c>
       <c r="Y7">
-        <v>1.51</v>
+        <v>1.58</v>
       </c>
       <c r="Z7">
-        <v>1.4</v>
+        <v>1.12</v>
       </c>
       <c r="AA7">
-        <v>2.91</v>
+        <v>2.7</v>
       </c>
       <c r="AB7">
-        <v>0</v>
+        <v>1.88</v>
       </c>
       <c r="AC7">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AD7">
-        <v>0</v>
+        <v>2.17</v>
       </c>
       <c r="AE7">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="AF7">
-        <v>1.95</v>
+        <v>1.43</v>
       </c>
       <c r="AG7">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="AH7">
-        <v>0</v>
+        <v>2.16</v>
       </c>
       <c r="AI7">
-        <v>0</v>
+        <v>2.75</v>
       </c>
     </row>
     <row r="8" spans="1:35">
@@ -1465,19 +1465,19 @@
         <v>84</v>
       </c>
       <c r="G8">
-        <v>2.2</v>
+        <v>1.62</v>
       </c>
       <c r="H8">
-        <v>3.5</v>
+        <v>3.9</v>
       </c>
       <c r="I8">
-        <v>3</v>
+        <v>4.85</v>
       </c>
       <c r="J8">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K8">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="L8">
         <v>1.22</v>
@@ -1486,55 +1486,55 @@
         <v>4</v>
       </c>
       <c r="N8">
-        <v>1.66</v>
+        <v>1.83</v>
       </c>
       <c r="O8">
-        <v>2.04</v>
+        <v>2.05</v>
       </c>
       <c r="P8">
-        <v>1.33</v>
+        <v>1.38</v>
       </c>
       <c r="Q8">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="R8">
-        <v>1.62</v>
+        <v>1.75</v>
       </c>
       <c r="S8">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="T8">
-        <v>1.41</v>
+        <v>1.18</v>
       </c>
       <c r="U8">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="V8">
-        <v>1.61</v>
+        <v>2.15</v>
       </c>
       <c r="W8">
-        <v>1.33</v>
+        <v>3</v>
       </c>
       <c r="X8">
-        <v>1.25</v>
+        <v>0.5</v>
       </c>
       <c r="Y8">
-        <v>1.52</v>
+        <v>1.3</v>
       </c>
       <c r="Z8">
-        <v>1.44</v>
+        <v>0.96</v>
       </c>
       <c r="AA8">
-        <v>2.96</v>
+        <v>2.26</v>
       </c>
       <c r="AB8">
-        <v>1.72</v>
+        <v>1.58</v>
       </c>
       <c r="AC8">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AD8">
-        <v>2.55</v>
+        <v>2.88</v>
       </c>
       <c r="AE8">
         <v>1.29</v>
@@ -1572,67 +1572,67 @@
         <v>85</v>
       </c>
       <c r="G9">
-        <v>1.95</v>
+        <v>1.68</v>
       </c>
       <c r="H9">
+        <v>3.9</v>
+      </c>
+      <c r="I9">
+        <v>4.4</v>
+      </c>
+      <c r="J9">
+        <v>1.04</v>
+      </c>
+      <c r="K9">
+        <v>10</v>
+      </c>
+      <c r="L9">
+        <v>1.22</v>
+      </c>
+      <c r="M9">
+        <v>4</v>
+      </c>
+      <c r="N9">
+        <v>1.64</v>
+      </c>
+      <c r="O9">
+        <v>2.15</v>
+      </c>
+      <c r="P9">
+        <v>1.3</v>
+      </c>
+      <c r="Q9">
         <v>3.4</v>
       </c>
-      <c r="I9">
-        <v>3.9</v>
-      </c>
-      <c r="J9">
-        <v>1.07</v>
-      </c>
-      <c r="K9">
-        <v>7.5</v>
-      </c>
-      <c r="L9">
-        <v>1.36</v>
-      </c>
-      <c r="M9">
-        <v>3</v>
-      </c>
-      <c r="N9">
-        <v>1.83</v>
-      </c>
-      <c r="O9">
-        <v>1.83</v>
-      </c>
-      <c r="P9">
-        <v>1.4</v>
-      </c>
-      <c r="Q9">
-        <v>2.75</v>
-      </c>
       <c r="R9">
-        <v>1.91</v>
+        <v>1.7</v>
       </c>
       <c r="S9">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="T9">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="U9">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="V9">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="W9">
-        <v>1.5</v>
+        <v>2.22</v>
       </c>
       <c r="X9">
-        <v>1.11</v>
+        <v>0.44</v>
       </c>
       <c r="Y9">
-        <v>1.57</v>
+        <v>1.76</v>
       </c>
       <c r="Z9">
-        <v>1.16</v>
+        <v>1.08</v>
       </c>
       <c r="AA9">
-        <v>2.73</v>
+        <v>2.84</v>
       </c>
       <c r="AB9">
         <v>1.38</v>
@@ -1641,22 +1641,22 @@
         <v>8</v>
       </c>
       <c r="AD9">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="AE9">
-        <v>1.3</v>
+        <v>1.24</v>
       </c>
       <c r="AF9">
-        <v>1.56</v>
+        <v>1.44</v>
       </c>
       <c r="AG9">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AH9">
-        <v>2.63</v>
+        <v>2.3</v>
       </c>
       <c r="AI9">
-        <v>3.65</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="10" spans="1:35">
@@ -1679,91 +1679,91 @@
         <v>86</v>
       </c>
       <c r="G10">
-        <v>1.6</v>
+        <v>2.49</v>
       </c>
       <c r="H10">
-        <v>3.9</v>
+        <v>3.5</v>
       </c>
       <c r="I10">
-        <v>5.5</v>
+        <v>2.54</v>
       </c>
       <c r="J10">
         <v>1.03</v>
       </c>
       <c r="K10">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L10">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="M10">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="N10">
-        <v>1.74</v>
+        <v>1.65</v>
       </c>
       <c r="O10">
-        <v>1.94</v>
+        <v>2.14</v>
       </c>
       <c r="P10">
-        <v>1.38</v>
+        <v>1.3</v>
       </c>
       <c r="Q10">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="R10">
-        <v>1.75</v>
+        <v>1.53</v>
       </c>
       <c r="S10">
-        <v>2.05</v>
+        <v>2.38</v>
       </c>
       <c r="T10">
-        <v>1.18</v>
+        <v>1.44</v>
       </c>
       <c r="U10">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="V10">
-        <v>2.15</v>
+        <v>1.53</v>
       </c>
       <c r="W10">
-        <v>3</v>
+        <v>2.57</v>
       </c>
       <c r="X10">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="Y10">
+        <v>1.37</v>
+      </c>
+      <c r="Z10">
+        <v>1.1</v>
+      </c>
+      <c r="AA10">
+        <v>2.47</v>
+      </c>
+      <c r="AB10">
+        <v>1.8</v>
+      </c>
+      <c r="AC10">
+        <v>7</v>
+      </c>
+      <c r="AD10">
+        <v>2.4</v>
+      </c>
+      <c r="AE10">
         <v>1.3</v>
       </c>
-      <c r="Z10">
-        <v>0.96</v>
-      </c>
-      <c r="AA10">
-        <v>2.26</v>
-      </c>
-      <c r="AB10">
-        <v>1.58</v>
-      </c>
-      <c r="AC10">
-        <v>7.5</v>
-      </c>
-      <c r="AD10">
-        <v>2.88</v>
-      </c>
-      <c r="AE10">
-        <v>1.29</v>
-      </c>
       <c r="AF10">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="AG10">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="AH10">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="AI10">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="11" spans="1:35">
@@ -1786,67 +1786,67 @@
         <v>87</v>
       </c>
       <c r="G11">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="H11">
-        <v>3.9</v>
+        <v>3.45</v>
       </c>
       <c r="I11">
-        <v>4.6</v>
+        <v>4.25</v>
       </c>
       <c r="J11">
-        <v>1.04</v>
+        <v>1.07</v>
       </c>
       <c r="K11">
-        <v>10</v>
+        <v>7.5</v>
       </c>
       <c r="L11">
+        <v>1.36</v>
+      </c>
+      <c r="M11">
+        <v>3</v>
+      </c>
+      <c r="N11">
+        <v>1.94</v>
+      </c>
+      <c r="O11">
+        <v>1.94</v>
+      </c>
+      <c r="P11">
+        <v>1.4</v>
+      </c>
+      <c r="Q11">
+        <v>2.75</v>
+      </c>
+      <c r="R11">
+        <v>1.91</v>
+      </c>
+      <c r="S11">
+        <v>1.8</v>
+      </c>
+      <c r="T11">
+        <v>1.2</v>
+      </c>
+      <c r="U11">
         <v>1.22</v>
       </c>
-      <c r="M11">
-        <v>4</v>
-      </c>
-      <c r="N11">
-        <v>1.66</v>
-      </c>
-      <c r="O11">
+      <c r="V11">
         <v>2.05</v>
       </c>
-      <c r="P11">
-        <v>1.3</v>
-      </c>
-      <c r="Q11">
-        <v>3.4</v>
-      </c>
-      <c r="R11">
-        <v>1.7</v>
-      </c>
-      <c r="S11">
-        <v>2.05</v>
-      </c>
-      <c r="T11">
-        <v>1.18</v>
-      </c>
-      <c r="U11">
-        <v>1.25</v>
-      </c>
-      <c r="V11">
-        <v>2.1</v>
-      </c>
       <c r="W11">
-        <v>2.22</v>
+        <v>1.5</v>
       </c>
       <c r="X11">
-        <v>0.44</v>
+        <v>1.11</v>
       </c>
       <c r="Y11">
-        <v>1.76</v>
+        <v>1.57</v>
       </c>
       <c r="Z11">
-        <v>1.08</v>
+        <v>1.16</v>
       </c>
       <c r="AA11">
-        <v>2.84</v>
+        <v>2.73</v>
       </c>
       <c r="AB11">
         <v>1.38</v>
@@ -1855,22 +1855,22 @@
         <v>8</v>
       </c>
       <c r="AD11">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="AE11">
-        <v>1.24</v>
+        <v>1.3</v>
       </c>
       <c r="AF11">
-        <v>1.44</v>
+        <v>1.56</v>
       </c>
       <c r="AG11">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AH11">
-        <v>2.3</v>
+        <v>2.63</v>
       </c>
       <c r="AI11">
-        <v>3.1</v>
+        <v>3.65</v>
       </c>
     </row>
     <row r="12" spans="1:35">
@@ -1893,91 +1893,91 @@
         <v>88</v>
       </c>
       <c r="G12">
-        <v>2.5</v>
+        <v>2.37</v>
       </c>
       <c r="H12">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I12">
-        <v>2.63</v>
+        <v>2.73</v>
       </c>
       <c r="J12">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="K12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L12">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="M12">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="N12">
-        <v>1.58</v>
+        <v>1.84</v>
       </c>
       <c r="O12">
-        <v>2.18</v>
+        <v>2.04</v>
       </c>
       <c r="P12">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="Q12">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="R12">
-        <v>1.53</v>
+        <v>1.62</v>
       </c>
       <c r="S12">
-        <v>2.38</v>
+        <v>2.2</v>
       </c>
       <c r="T12">
+        <v>1.41</v>
+      </c>
+      <c r="U12">
+        <v>1.29</v>
+      </c>
+      <c r="V12">
+        <v>1.61</v>
+      </c>
+      <c r="W12">
+        <v>1.33</v>
+      </c>
+      <c r="X12">
+        <v>1.25</v>
+      </c>
+      <c r="Y12">
+        <v>1.52</v>
+      </c>
+      <c r="Z12">
         <v>1.44</v>
       </c>
-      <c r="U12">
-        <v>1.25</v>
-      </c>
-      <c r="V12">
-        <v>1.53</v>
-      </c>
-      <c r="W12">
-        <v>2.57</v>
-      </c>
-      <c r="X12">
-        <v>1.5</v>
-      </c>
-      <c r="Y12">
-        <v>1.37</v>
-      </c>
-      <c r="Z12">
-        <v>1.1</v>
-      </c>
       <c r="AA12">
-        <v>2.47</v>
+        <v>2.96</v>
       </c>
       <c r="AB12">
-        <v>1.8</v>
+        <v>1.72</v>
       </c>
       <c r="AC12">
         <v>7</v>
       </c>
       <c r="AD12">
-        <v>2.4</v>
+        <v>2.55</v>
       </c>
       <c r="AE12">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="AF12">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="AG12">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="AH12">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="AI12">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="13" spans="1:35">
@@ -2000,19 +2000,19 @@
         <v>89</v>
       </c>
       <c r="G13">
-        <v>2.38</v>
+        <v>1.88</v>
       </c>
       <c r="H13">
-        <v>3.59</v>
+        <v>3.4</v>
       </c>
       <c r="I13">
-        <v>2.6</v>
+        <v>3.4</v>
       </c>
       <c r="J13">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="K13">
-        <v>9.9</v>
+        <v>9</v>
       </c>
       <c r="L13">
         <v>1.25</v>
@@ -2021,70 +2021,70 @@
         <v>3.6</v>
       </c>
       <c r="N13">
-        <v>1.73</v>
+        <v>1.65</v>
       </c>
       <c r="O13">
-        <v>1.91</v>
+        <v>2.14</v>
       </c>
       <c r="P13">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="Q13">
-        <v>2.94</v>
+        <v>3</v>
       </c>
       <c r="R13">
-        <v>1.66</v>
+        <v>1.72</v>
       </c>
       <c r="S13">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="T13">
+        <v>1.2</v>
+      </c>
+      <c r="U13">
+        <v>1.22</v>
+      </c>
+      <c r="V13">
+        <v>1.83</v>
+      </c>
+      <c r="W13">
+        <v>1.43</v>
+      </c>
+      <c r="X13">
+        <v>0.86</v>
+      </c>
+      <c r="Y13">
+        <v>1.42</v>
+      </c>
+      <c r="Z13">
+        <v>1.31</v>
+      </c>
+      <c r="AA13">
+        <v>2.73</v>
+      </c>
+      <c r="AB13">
+        <v>1.43</v>
+      </c>
+      <c r="AC13">
+        <v>6.6</v>
+      </c>
+      <c r="AD13">
+        <v>4</v>
+      </c>
+      <c r="AE13">
         <v>1.3</v>
       </c>
-      <c r="U13">
-        <v>1.25</v>
-      </c>
-      <c r="V13">
-        <v>1.57</v>
-      </c>
-      <c r="W13">
-        <v>0.63</v>
-      </c>
-      <c r="X13">
-        <v>1.13</v>
-      </c>
-      <c r="Y13">
-        <v>1.91</v>
-      </c>
-      <c r="Z13">
-        <v>1.39</v>
-      </c>
-      <c r="AA13">
-        <v>3.3</v>
-      </c>
-      <c r="AB13">
-        <v>0</v>
-      </c>
-      <c r="AC13">
-        <v>0</v>
-      </c>
-      <c r="AD13">
-        <v>0</v>
-      </c>
-      <c r="AE13">
-        <v>0</v>
-      </c>
       <c r="AF13">
-        <v>1.52</v>
+        <v>1.61</v>
       </c>
       <c r="AG13">
-        <v>1.86</v>
+        <v>1.98</v>
       </c>
       <c r="AH13">
-        <v>2.3</v>
+        <v>2.47</v>
       </c>
       <c r="AI13">
-        <v>0</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="14" spans="1:35">
@@ -2107,91 +2107,91 @@
         <v>90</v>
       </c>
       <c r="G14">
-        <v>1.6</v>
+        <v>2.06</v>
       </c>
       <c r="H14">
-        <v>4.1</v>
+        <v>3.3</v>
       </c>
       <c r="I14">
-        <v>4.67</v>
+        <v>2.97</v>
       </c>
       <c r="J14">
-        <v>1.05</v>
+        <v>1.01</v>
       </c>
       <c r="K14">
-        <v>9</v>
+        <v>9.9</v>
       </c>
       <c r="L14">
         <v>1.25</v>
       </c>
       <c r="M14">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="N14">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="O14">
+        <v>2</v>
+      </c>
+      <c r="P14">
+        <v>1.35</v>
+      </c>
+      <c r="Q14">
+        <v>2.94</v>
+      </c>
+      <c r="R14">
+        <v>1.66</v>
+      </c>
+      <c r="S14">
+        <v>2.15</v>
+      </c>
+      <c r="T14">
+        <v>1.3</v>
+      </c>
+      <c r="U14">
+        <v>1.25</v>
+      </c>
+      <c r="V14">
+        <v>1.57</v>
+      </c>
+      <c r="W14">
+        <v>0.63</v>
+      </c>
+      <c r="X14">
+        <v>1.13</v>
+      </c>
+      <c r="Y14">
         <v>1.91</v>
       </c>
-      <c r="P14">
-        <v>1.33</v>
-      </c>
-      <c r="Q14">
-        <v>3.25</v>
-      </c>
-      <c r="R14">
-        <v>1.75</v>
-      </c>
-      <c r="S14">
-        <v>2</v>
-      </c>
-      <c r="T14">
-        <v>1.15</v>
-      </c>
-      <c r="U14">
-        <v>1.2</v>
-      </c>
-      <c r="V14">
-        <v>2.1</v>
-      </c>
-      <c r="W14">
-        <v>1.29</v>
-      </c>
-      <c r="X14">
-        <v>0.88</v>
-      </c>
-      <c r="Y14">
-        <v>1.64</v>
-      </c>
       <c r="Z14">
+        <v>1.39</v>
+      </c>
+      <c r="AA14">
+        <v>3.3</v>
+      </c>
+      <c r="AB14">
+        <v>1.72</v>
+      </c>
+      <c r="AC14">
+        <v>6.9</v>
+      </c>
+      <c r="AD14">
+        <v>2.68</v>
+      </c>
+      <c r="AE14">
         <v>1.25</v>
       </c>
-      <c r="AA14">
-        <v>2.89</v>
-      </c>
-      <c r="AB14">
-        <v>0</v>
-      </c>
-      <c r="AC14">
-        <v>0</v>
-      </c>
-      <c r="AD14">
-        <v>0</v>
-      </c>
-      <c r="AE14">
-        <v>0</v>
-      </c>
       <c r="AF14">
-        <v>1.56</v>
+        <v>1.52</v>
       </c>
       <c r="AG14">
-        <v>1.92</v>
+        <v>1.86</v>
       </c>
       <c r="AH14">
-        <v>2.39</v>
+        <v>2.3</v>
       </c>
       <c r="AI14">
-        <v>0</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="15" spans="1:35">
@@ -2214,13 +2214,13 @@
         <v>91</v>
       </c>
       <c r="G15">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="H15">
-        <v>4.13</v>
+        <v>3.6</v>
       </c>
       <c r="I15">
-        <v>4.1</v>
+        <v>4.05</v>
       </c>
       <c r="J15">
         <v>1.05</v>
@@ -2232,78 +2232,78 @@
         <v>1.25</v>
       </c>
       <c r="M15">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="N15">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="O15">
-        <v>1.91</v>
+        <v>2.1</v>
       </c>
       <c r="P15">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="Q15">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="R15">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="S15">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T15">
+        <v>1.15</v>
+      </c>
+      <c r="U15">
         <v>1.2</v>
       </c>
-      <c r="U15">
-        <v>1.22</v>
-      </c>
       <c r="V15">
-        <v>1.83</v>
+        <v>2.1</v>
       </c>
       <c r="W15">
-        <v>1.43</v>
+        <v>1.29</v>
       </c>
       <c r="X15">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="Y15">
-        <v>1.42</v>
+        <v>1.64</v>
       </c>
       <c r="Z15">
-        <v>1.31</v>
+        <v>1.25</v>
       </c>
       <c r="AA15">
-        <v>2.73</v>
+        <v>2.89</v>
       </c>
       <c r="AB15">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="AC15">
-        <v>0</v>
+        <v>7.6</v>
       </c>
       <c r="AD15">
-        <v>0</v>
+        <v>3.58</v>
       </c>
       <c r="AE15">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="AF15">
-        <v>1.61</v>
+        <v>1.56</v>
       </c>
       <c r="AG15">
-        <v>1.98</v>
+        <v>1.92</v>
       </c>
       <c r="AH15">
-        <v>2.47</v>
+        <v>2.39</v>
       </c>
       <c r="AI15">
-        <v>0</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="16" spans="1:35">
       <c r="A16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B16" s="2">
         <v>45098</v>
@@ -2312,7 +2312,7 @@
         <v>46</v>
       </c>
       <c r="D16">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="E16" t="s">
         <v>65</v>
@@ -2321,91 +2321,91 @@
         <v>92</v>
       </c>
       <c r="G16">
-        <v>4.25</v>
+        <v>2.2</v>
       </c>
       <c r="H16">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="I16">
-        <v>1.89</v>
+        <v>3.5</v>
       </c>
       <c r="J16">
-        <v>1.05</v>
+        <v>1.1</v>
       </c>
       <c r="K16">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="L16">
-        <v>1.33</v>
+        <v>1.53</v>
       </c>
       <c r="M16">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="N16">
-        <v>2.03</v>
+        <v>2.65</v>
       </c>
       <c r="O16">
-        <v>1.83</v>
+        <v>1.47</v>
       </c>
       <c r="P16">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="Q16">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="R16">
-        <v>1.75</v>
+        <v>2.15</v>
       </c>
       <c r="S16">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="T16">
+        <v>1.29</v>
+      </c>
+      <c r="U16">
+        <v>1.35</v>
+      </c>
+      <c r="V16">
+        <v>1.63</v>
+      </c>
+      <c r="W16">
+        <v>1.3</v>
+      </c>
+      <c r="X16">
+        <v>0.7</v>
+      </c>
+      <c r="Y16">
+        <v>1.56</v>
+      </c>
+      <c r="Z16">
+        <v>1.29</v>
+      </c>
+      <c r="AA16">
+        <v>2.85</v>
+      </c>
+      <c r="AB16">
         <v>1.82</v>
-      </c>
-      <c r="U16">
-        <v>1.3</v>
-      </c>
-      <c r="V16">
-        <v>1.25</v>
-      </c>
-      <c r="W16">
-        <v>1</v>
-      </c>
-      <c r="X16">
-        <v>1.8</v>
-      </c>
-      <c r="Y16">
-        <v>1.76</v>
-      </c>
-      <c r="Z16">
-        <v>1.45</v>
-      </c>
-      <c r="AA16">
-        <v>3.21</v>
-      </c>
-      <c r="AB16">
-        <v>2.65</v>
       </c>
       <c r="AC16">
         <v>8</v>
       </c>
       <c r="AD16">
-        <v>1.62</v>
+        <v>2.33</v>
       </c>
       <c r="AE16">
-        <v>1.17</v>
+        <v>1.22</v>
       </c>
       <c r="AF16">
-        <v>1.32</v>
+        <v>1.41</v>
       </c>
       <c r="AG16">
-        <v>1.57</v>
+        <v>1.73</v>
       </c>
       <c r="AH16">
-        <v>1.94</v>
+        <v>2.23</v>
       </c>
       <c r="AI16">
-        <v>2.43</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:35">
@@ -2428,37 +2428,37 @@
         <v>93</v>
       </c>
       <c r="G17">
-        <v>2.17</v>
+        <v>4.2</v>
       </c>
       <c r="H17">
-        <v>3.41</v>
+        <v>3.5</v>
       </c>
       <c r="I17">
-        <v>3.5</v>
+        <v>1.8</v>
       </c>
       <c r="J17">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="K17">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L17">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="M17">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="N17">
-        <v>2.3</v>
+        <v>1.93</v>
       </c>
       <c r="O17">
-        <v>1.6</v>
+        <v>1.77</v>
       </c>
       <c r="P17">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="Q17">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="R17">
         <v>1.8</v>
@@ -2467,57 +2467,57 @@
         <v>1.95</v>
       </c>
       <c r="T17">
-        <v>1.37</v>
+        <v>1.82</v>
       </c>
       <c r="U17">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="V17">
-        <v>1.55</v>
+        <v>1.25</v>
       </c>
       <c r="W17">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="X17">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="Y17">
-        <v>1.92</v>
+        <v>1.76</v>
       </c>
       <c r="Z17">
-        <v>1.42</v>
+        <v>1.45</v>
       </c>
       <c r="AA17">
-        <v>3.34</v>
+        <v>3.21</v>
       </c>
       <c r="AB17">
-        <v>1.94</v>
+        <v>2.3</v>
       </c>
       <c r="AC17">
         <v>8</v>
       </c>
       <c r="AD17">
-        <v>2.1</v>
+        <v>1.79</v>
       </c>
       <c r="AE17">
         <v>1.17</v>
       </c>
       <c r="AF17">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="AG17">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AH17">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="AI17">
-        <v>2.4</v>
+        <v>2.43</v>
       </c>
     </row>
     <row r="18" spans="1:35">
       <c r="A18" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B18" s="2">
         <v>45098</v>
@@ -2526,7 +2526,7 @@
         <v>46</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E18" t="s">
         <v>67</v>
@@ -2535,91 +2535,91 @@
         <v>94</v>
       </c>
       <c r="G18">
+        <v>2.2</v>
+      </c>
+      <c r="H18">
+        <v>3.1</v>
+      </c>
+      <c r="I18">
+        <v>3.25</v>
+      </c>
+      <c r="J18">
+        <v>1.07</v>
+      </c>
+      <c r="K18">
+        <v>9</v>
+      </c>
+      <c r="L18">
+        <v>1.38</v>
+      </c>
+      <c r="M18">
+        <v>3</v>
+      </c>
+      <c r="N18">
+        <v>2.1</v>
+      </c>
+      <c r="O18">
+        <v>1.65</v>
+      </c>
+      <c r="P18">
+        <v>1.44</v>
+      </c>
+      <c r="Q18">
+        <v>2.63</v>
+      </c>
+      <c r="R18">
         <v>1.8</v>
       </c>
-      <c r="H18">
-        <v>3.8</v>
-      </c>
-      <c r="I18">
-        <v>4</v>
-      </c>
-      <c r="J18">
-        <v>1.02</v>
-      </c>
-      <c r="K18">
-        <v>17</v>
-      </c>
-      <c r="L18">
-        <v>1.2</v>
-      </c>
-      <c r="M18">
-        <v>4.5</v>
-      </c>
-      <c r="N18">
-        <v>1.58</v>
-      </c>
-      <c r="O18">
-        <v>2.18</v>
-      </c>
-      <c r="P18">
-        <v>1.3</v>
-      </c>
-      <c r="Q18">
-        <v>3.25</v>
-      </c>
-      <c r="R18">
-        <v>1.6</v>
-      </c>
       <c r="S18">
-        <v>2.15</v>
+        <v>1.95</v>
       </c>
       <c r="T18">
-        <v>1.25</v>
+        <v>1.37</v>
       </c>
       <c r="U18">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="V18">
-        <v>1.93</v>
+        <v>1.55</v>
       </c>
       <c r="W18">
-        <v>2.11</v>
+        <v>2.5</v>
       </c>
       <c r="X18">
-        <v>1.56</v>
+        <v>2</v>
       </c>
       <c r="Y18">
-        <v>1.65</v>
+        <v>1.92</v>
       </c>
       <c r="Z18">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="AA18">
-        <v>3.06</v>
+        <v>3.34</v>
       </c>
       <c r="AB18">
-        <v>1.43</v>
+        <v>1.98</v>
       </c>
       <c r="AC18">
         <v>8</v>
       </c>
       <c r="AD18">
-        <v>3.5</v>
+        <v>2.05</v>
       </c>
       <c r="AE18">
-        <v>1.26</v>
+        <v>1.17</v>
       </c>
       <c r="AF18">
-        <v>1.48</v>
+        <v>1.3</v>
       </c>
       <c r="AG18">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="AH18">
-        <v>2.43</v>
+        <v>1.92</v>
       </c>
       <c r="AI18">
-        <v>3.3</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="19" spans="1:35">
@@ -2645,93 +2645,93 @@
         <v>1.95</v>
       </c>
       <c r="H19">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="I19">
-        <v>3.75</v>
+        <v>3.35</v>
       </c>
       <c r="J19">
         <v>1.02</v>
       </c>
       <c r="K19">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L19">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="M19">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="N19">
-        <v>1.66</v>
+        <v>1.56</v>
       </c>
       <c r="O19">
-        <v>2.05</v>
+        <v>2.32</v>
       </c>
       <c r="P19">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="Q19">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="R19">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="S19">
         <v>2.15</v>
       </c>
       <c r="T19">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="U19">
-        <v>1.27</v>
+        <v>1.24</v>
       </c>
       <c r="V19">
-        <v>1.83</v>
+        <v>1.93</v>
       </c>
       <c r="W19">
-        <v>2.38</v>
+        <v>2.11</v>
       </c>
       <c r="X19">
-        <v>0.67</v>
+        <v>1.56</v>
       </c>
       <c r="Y19">
-        <v>1.33</v>
+        <v>1.65</v>
       </c>
       <c r="Z19">
-        <v>1.18</v>
+        <v>1.41</v>
       </c>
       <c r="AA19">
-        <v>2.51</v>
+        <v>3.06</v>
       </c>
       <c r="AB19">
-        <v>1.78</v>
+        <v>1.43</v>
       </c>
       <c r="AC19">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AD19">
-        <v>2.4</v>
+        <v>3.5</v>
       </c>
       <c r="AE19">
-        <v>1.2</v>
+        <v>1.26</v>
       </c>
       <c r="AF19">
-        <v>1.38</v>
+        <v>1.48</v>
       </c>
       <c r="AG19">
-        <v>1.67</v>
+        <v>1.88</v>
       </c>
       <c r="AH19">
-        <v>2.12</v>
+        <v>2.43</v>
       </c>
       <c r="AI19">
-        <v>2.85</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="20" spans="1:35">
       <c r="A20" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B20" s="2">
         <v>45098</v>
@@ -2740,7 +2740,7 @@
         <v>46</v>
       </c>
       <c r="D20">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="E20" t="s">
         <v>69</v>
@@ -2749,96 +2749,96 @@
         <v>96</v>
       </c>
       <c r="G20">
-        <v>2.2</v>
+        <v>1.97</v>
       </c>
       <c r="H20">
-        <v>3.1</v>
+        <v>3.65</v>
       </c>
       <c r="I20">
-        <v>3.5</v>
+        <v>3.35</v>
       </c>
       <c r="J20">
-        <v>1.1</v>
+        <v>1.02</v>
       </c>
       <c r="K20">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="L20">
-        <v>1.53</v>
+        <v>1.22</v>
       </c>
       <c r="M20">
-        <v>2.5</v>
+        <v>4.2</v>
       </c>
       <c r="N20">
-        <v>2.65</v>
+        <v>1.65</v>
       </c>
       <c r="O20">
-        <v>1.47</v>
+        <v>2.14</v>
       </c>
       <c r="P20">
-        <v>1.55</v>
+        <v>1.33</v>
       </c>
       <c r="Q20">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="R20">
+        <v>1.62</v>
+      </c>
+      <c r="S20">
         <v>2.15</v>
       </c>
-      <c r="S20">
-        <v>1.6</v>
-      </c>
       <c r="T20">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="U20">
-        <v>1.35</v>
+        <v>1.27</v>
       </c>
       <c r="V20">
-        <v>1.63</v>
+        <v>1.83</v>
       </c>
       <c r="W20">
-        <v>1.3</v>
+        <v>2.38</v>
       </c>
       <c r="X20">
-        <v>0.7</v>
+        <v>0.67</v>
       </c>
       <c r="Y20">
-        <v>1.56</v>
+        <v>1.33</v>
       </c>
       <c r="Z20">
-        <v>1.29</v>
+        <v>1.18</v>
       </c>
       <c r="AA20">
+        <v>2.51</v>
+      </c>
+      <c r="AB20">
+        <v>1.78</v>
+      </c>
+      <c r="AC20">
+        <v>7.5</v>
+      </c>
+      <c r="AD20">
+        <v>2.4</v>
+      </c>
+      <c r="AE20">
+        <v>1.2</v>
+      </c>
+      <c r="AF20">
+        <v>1.38</v>
+      </c>
+      <c r="AG20">
+        <v>1.67</v>
+      </c>
+      <c r="AH20">
+        <v>2.12</v>
+      </c>
+      <c r="AI20">
         <v>2.85</v>
-      </c>
-      <c r="AB20">
-        <v>1.82</v>
-      </c>
-      <c r="AC20">
-        <v>8</v>
-      </c>
-      <c r="AD20">
-        <v>2.33</v>
-      </c>
-      <c r="AE20">
-        <v>1.22</v>
-      </c>
-      <c r="AF20">
-        <v>1.41</v>
-      </c>
-      <c r="AG20">
-        <v>1.73</v>
-      </c>
-      <c r="AH20">
-        <v>2.23</v>
-      </c>
-      <c r="AI20">
-        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:35">
       <c r="A21" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B21" s="2">
         <v>45098</v>
@@ -2856,96 +2856,96 @@
         <v>97</v>
       </c>
       <c r="G21">
-        <v>2.11</v>
+        <v>1.97</v>
       </c>
       <c r="H21">
-        <v>3.62</v>
+        <v>3.25</v>
       </c>
       <c r="I21">
-        <v>2.99</v>
+        <v>3.3</v>
       </c>
       <c r="J21">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="K21">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L21">
-        <v>1.25</v>
+        <v>1.34</v>
       </c>
       <c r="M21">
-        <v>3.6</v>
+        <v>3.24</v>
       </c>
       <c r="N21">
-        <v>1.73</v>
+        <v>2.15</v>
       </c>
       <c r="O21">
-        <v>1.91</v>
+        <v>1.65</v>
       </c>
       <c r="P21">
-        <v>1.36</v>
+        <v>1.42</v>
       </c>
       <c r="Q21">
-        <v>3</v>
+        <v>2.65</v>
       </c>
       <c r="R21">
-        <v>1.63</v>
+        <v>1.85</v>
       </c>
       <c r="S21">
-        <v>2.09</v>
+        <v>1.83</v>
       </c>
       <c r="T21">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="U21">
-        <v>1.26</v>
+        <v>1.3</v>
       </c>
       <c r="V21">
-        <v>1.62</v>
+        <v>1.72</v>
       </c>
       <c r="W21">
-        <v>1.6</v>
+        <v>1.81</v>
       </c>
       <c r="X21">
-        <v>1.14</v>
+        <v>1.96</v>
       </c>
       <c r="Y21">
-        <v>1.17</v>
+        <v>1.55</v>
       </c>
       <c r="Z21">
-        <v>1.24</v>
+        <v>1.04</v>
       </c>
       <c r="AA21">
-        <v>2.41</v>
+        <v>2.59</v>
       </c>
       <c r="AB21">
-        <v>0</v>
+        <v>1.69</v>
       </c>
       <c r="AC21">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="AD21">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="AE21">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="AF21">
-        <v>1.6</v>
+        <v>1.44</v>
       </c>
       <c r="AG21">
-        <v>1.98</v>
+        <v>1.75</v>
       </c>
       <c r="AH21">
-        <v>2.49</v>
+        <v>2.15</v>
       </c>
       <c r="AI21">
-        <v>0</v>
+        <v>2.63</v>
       </c>
     </row>
     <row r="22" spans="1:35">
       <c r="A22" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B22" s="2">
         <v>45098</v>
@@ -2963,91 +2963,91 @@
         <v>98</v>
       </c>
       <c r="G22">
-        <v>1.99</v>
+        <v>2.06</v>
       </c>
       <c r="H22">
-        <v>3.32</v>
+        <v>3.3</v>
       </c>
       <c r="I22">
-        <v>4.17</v>
+        <v>2.97</v>
       </c>
       <c r="J22">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="K22">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L22">
-        <v>1.34</v>
+        <v>1.25</v>
       </c>
       <c r="M22">
-        <v>3.24</v>
+        <v>3.6</v>
       </c>
       <c r="N22">
-        <v>2.05</v>
+        <v>1.73</v>
       </c>
       <c r="O22">
-        <v>1.75</v>
+        <v>2.02</v>
       </c>
       <c r="P22">
-        <v>1.42</v>
+        <v>1.36</v>
       </c>
       <c r="Q22">
-        <v>2.65</v>
+        <v>3</v>
       </c>
       <c r="R22">
-        <v>1.85</v>
+        <v>1.63</v>
       </c>
       <c r="S22">
-        <v>1.83</v>
+        <v>2.09</v>
       </c>
       <c r="T22">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="U22">
-        <v>1.3</v>
+        <v>1.26</v>
       </c>
       <c r="V22">
+        <v>1.62</v>
+      </c>
+      <c r="W22">
+        <v>1.6</v>
+      </c>
+      <c r="X22">
+        <v>1.14</v>
+      </c>
+      <c r="Y22">
+        <v>1.17</v>
+      </c>
+      <c r="Z22">
+        <v>1.24</v>
+      </c>
+      <c r="AA22">
+        <v>2.41</v>
+      </c>
+      <c r="AB22">
         <v>1.72</v>
-      </c>
-      <c r="W22">
-        <v>1.81</v>
-      </c>
-      <c r="X22">
-        <v>1.96</v>
-      </c>
-      <c r="Y22">
-        <v>1.55</v>
-      </c>
-      <c r="Z22">
-        <v>1.04</v>
-      </c>
-      <c r="AA22">
-        <v>2.59</v>
-      </c>
-      <c r="AB22">
-        <v>1.69</v>
       </c>
       <c r="AC22">
         <v>8.5</v>
       </c>
       <c r="AD22">
-        <v>2.6</v>
+        <v>2.39</v>
       </c>
       <c r="AE22">
-        <v>1.2</v>
+        <v>1.29</v>
       </c>
       <c r="AF22">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AG22">
-        <v>1.75</v>
+        <v>1.98</v>
       </c>
       <c r="AH22">
-        <v>2.15</v>
+        <v>2.49</v>
       </c>
       <c r="AI22">
-        <v>2.63</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="23" spans="1:35">
@@ -3070,13 +3070,13 @@
         <v>99</v>
       </c>
       <c r="G23">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="H23">
         <v>3.4</v>
       </c>
       <c r="I23">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="J23">
         <v>1.04</v>
@@ -3091,7 +3091,7 @@
         <v>3.6</v>
       </c>
       <c r="N23">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="O23">
         <v>2.02</v>
@@ -3177,13 +3177,13 @@
         <v>100</v>
       </c>
       <c r="G24">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="H24">
         <v>3.4</v>
       </c>
       <c r="I24">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="J24">
         <v>1.04</v>
@@ -3198,10 +3198,10 @@
         <v>3.65</v>
       </c>
       <c r="N24">
-        <v>1.84</v>
+        <v>1.97</v>
       </c>
       <c r="O24">
-        <v>2.02</v>
+        <v>1.91</v>
       </c>
       <c r="P24">
         <v>1.3</v>
@@ -3284,31 +3284,31 @@
         <v>101</v>
       </c>
       <c r="G25">
-        <v>1.67</v>
+        <v>1.58</v>
       </c>
       <c r="H25">
         <v>3.45</v>
       </c>
       <c r="I25">
-        <v>4.7</v>
+        <v>4.4</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>7.7</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>3.04</v>
       </c>
       <c r="N25">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="O25">
-        <v>1.76</v>
+        <v>1.72</v>
       </c>
       <c r="P25">
         <v>1.44</v>
@@ -3323,13 +3323,13 @@
         <v>1.62</v>
       </c>
       <c r="T25">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="U25">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="V25">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="W25">
         <v>1.83</v>
@@ -3391,13 +3391,13 @@
         <v>102</v>
       </c>
       <c r="G26">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="H26">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="I26">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="J26">
         <v>1.03</v>
@@ -3412,10 +3412,10 @@
         <v>4</v>
       </c>
       <c r="N26">
-        <v>1.83</v>
+        <v>1.64</v>
       </c>
       <c r="O26">
-        <v>2.03</v>
+        <v>2.15</v>
       </c>
       <c r="P26">
         <v>1.35</v>
@@ -3501,88 +3501,88 @@
         <v>1.95</v>
       </c>
       <c r="H27">
+        <v>3.55</v>
+      </c>
+      <c r="I27">
+        <v>3.6</v>
+      </c>
+      <c r="J27">
+        <v>1.04</v>
+      </c>
+      <c r="K27">
+        <v>12</v>
+      </c>
+      <c r="L27">
+        <v>1.3</v>
+      </c>
+      <c r="M27">
         <v>3.5</v>
       </c>
-      <c r="I27">
-        <v>3.8</v>
-      </c>
-      <c r="J27">
-        <v>1.03</v>
-      </c>
-      <c r="K27">
-        <v>13</v>
-      </c>
-      <c r="L27">
-        <v>1.25</v>
-      </c>
-      <c r="M27">
-        <v>3.75</v>
-      </c>
       <c r="N27">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="O27">
-        <v>2.03</v>
+        <v>1.97</v>
       </c>
       <c r="P27">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="Q27">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="R27">
         <v>1.75</v>
       </c>
       <c r="S27">
-        <v>2.05</v>
+        <v>1.93</v>
       </c>
       <c r="T27">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="U27">
-        <v>1.2</v>
+        <v>1.28</v>
       </c>
       <c r="V27">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="W27">
-        <v>2.13</v>
+        <v>1.75</v>
       </c>
       <c r="X27">
-        <v>1.38</v>
+        <v>0.63</v>
       </c>
       <c r="Y27">
-        <v>1.98</v>
+        <v>1.61</v>
       </c>
       <c r="Z27">
-        <v>1.27</v>
+        <v>1.03</v>
       </c>
       <c r="AA27">
+        <v>2.64</v>
+      </c>
+      <c r="AB27">
+        <v>1.47</v>
+      </c>
+      <c r="AC27">
+        <v>7.5</v>
+      </c>
+      <c r="AD27">
         <v>3.25</v>
       </c>
-      <c r="AB27">
-        <v>1.41</v>
-      </c>
-      <c r="AC27">
-        <v>8</v>
-      </c>
-      <c r="AD27">
-        <v>3.5</v>
-      </c>
       <c r="AE27">
-        <v>1.18</v>
+        <v>1.22</v>
       </c>
       <c r="AF27">
-        <v>1.34</v>
+        <v>1.42</v>
       </c>
       <c r="AG27">
-        <v>1.61</v>
+        <v>1.74</v>
       </c>
       <c r="AH27">
-        <v>2.02</v>
+        <v>2.23</v>
       </c>
       <c r="AI27">
-        <v>2.7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:35">
@@ -3605,91 +3605,91 @@
         <v>104</v>
       </c>
       <c r="G28">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="H28">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="I28">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="J28">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K28">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L28">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="M28">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="N28">
-        <v>1.93</v>
+        <v>1.86</v>
       </c>
       <c r="O28">
-        <v>1.93</v>
+        <v>2.02</v>
       </c>
       <c r="P28">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="Q28">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="R28">
         <v>1.75</v>
       </c>
       <c r="S28">
-        <v>1.93</v>
+        <v>2.05</v>
       </c>
       <c r="T28">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="U28">
-        <v>1.28</v>
+        <v>1.2</v>
       </c>
       <c r="V28">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="W28">
-        <v>1.75</v>
+        <v>2.13</v>
       </c>
       <c r="X28">
-        <v>0.63</v>
+        <v>1.38</v>
       </c>
       <c r="Y28">
+        <v>1.98</v>
+      </c>
+      <c r="Z28">
+        <v>1.27</v>
+      </c>
+      <c r="AA28">
+        <v>3.25</v>
+      </c>
+      <c r="AB28">
+        <v>1.41</v>
+      </c>
+      <c r="AC28">
+        <v>8</v>
+      </c>
+      <c r="AD28">
+        <v>3.5</v>
+      </c>
+      <c r="AE28">
+        <v>1.18</v>
+      </c>
+      <c r="AF28">
+        <v>1.34</v>
+      </c>
+      <c r="AG28">
         <v>1.61</v>
       </c>
-      <c r="Z28">
-        <v>1.03</v>
-      </c>
-      <c r="AA28">
-        <v>2.64</v>
-      </c>
-      <c r="AB28">
-        <v>1.47</v>
-      </c>
-      <c r="AC28">
-        <v>7.5</v>
-      </c>
-      <c r="AD28">
-        <v>3.25</v>
-      </c>
-      <c r="AE28">
-        <v>1.22</v>
-      </c>
-      <c r="AF28">
-        <v>1.42</v>
-      </c>
-      <c r="AG28">
-        <v>1.74</v>
-      </c>
       <c r="AH28">
-        <v>2.23</v>
+        <v>2.02</v>
       </c>
       <c r="AI28">
-        <v>3</v>
+        <v>2.7</v>
       </c>
     </row>
   </sheetData>
